--- a/DM/databank/banking/deal_management/DealManagement_Test_39945.xlsx
+++ b/DM/databank/banking/deal_management/DealManagement_Test_39945.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="TEST_DATA" sheetId="2" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="537">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -1664,42 +1664,6 @@
     <t>Reference added successfully</t>
   </si>
   <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3585031983","dealId":"9058858960","entityType":"PERS","entityId":"2380202516","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2380202516","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"13","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-02-27","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3585031983","dealId":"9058858960","entityType":"PERS","entityId":"2380202516","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2380202516","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"4538401331","valueAmt":"12","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"N","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"4530011503","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-03-24","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3585031983","dealId":"9058858960","entityType":"PERS","entityId":"2380202516","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2380202516","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300006","valueAmt":"11","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"Y","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"5410009203","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-02-27","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3585031983","dealId":"9058858960","entityType":"PERS","entityId":"2380202516","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2380202516","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"4538401333","valueAmt":"10","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"N","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"4530011505","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-03-24","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2854116873","dealId":"0250393349","entityType":"PERS","entityId":"2380202516","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2380202516","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"13","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-03-18","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2854116873","dealId":"0250393349","entityType":"PERS","entityId":"2380202516","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2380202516","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"6498402308","valueAmt":"12","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"N","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"6490012010","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-04-12","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2854116873","dealId":"0250393349","entityType":"PERS","entityId":"2380202516","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2380202516","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300006","valueAmt":"11","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"Y","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"5410009203","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-03-18","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2854116873","dealId":"0250393349","entityType":"PERS","entityId":"2380202516","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2380202516","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"6498402310","valueAmt":"10","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"N","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"6490012012","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-04-12","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9241782468","dealId":"7214774196","entityType":"PERS","entityId":"2380202516","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2380202516","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"13","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-03-18","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9241782468","dealId":"7214774196","entityType":"PERS","entityId":"2380202516","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2380202516","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"3308403184","valueAmt":"12","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"N","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"3300012526","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-04-12","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9241782468","dealId":"7214774196","entityType":"PERS","entityId":"2380202516","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2380202516","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300006","valueAmt":"11","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"Y","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"5410009203","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-03-18","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9241782468","dealId":"7214774196","entityType":"PERS","entityId":"2380202516","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2380202516","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"3308403186","valueAmt":"10","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"N","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"3300012528","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-04-12","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
     <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3278805668","dealId":"2177876686","entityType":"PERS","entityId":"2380202516","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2380202516","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"13","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-03-21","assignmentLevel":"Customer Price List"}]}}}</t>
   </si>
   <si>
@@ -1710,6 +1674,57 @@
   </si>
   <si>
     <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3278805668","dealId":"2177876686","entityType":"PERS","entityId":"2380202516","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2380202516","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"4688475689","valueAmt":"10","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"N","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"4680017735","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-04-15","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8882612276","dealId":"6600426529","entityType":"PERS","entityId":"2380202516","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2380202516","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"13","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-09-25","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6600426529","modelId":"8882612276","entityId":"2380202516","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2380202516","entityType":"PERS","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4230014387","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-09-25","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300004","priceCompDesc":"FLAT","valueAmt":"13","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8882612276","dealId":"6600426529","entityType":"PERS","entityId":"2380202516","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2380202516","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"4238600691","valueAmt":"12","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"N","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"4230014387","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-10-20","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6600426529","modelId":"8882612276","entityId":"2380202516","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2380202516","entityType":"PERS","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4230014388","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-10-20","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"4238600691","priceCompDesc":"FLAT","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8882612276","dealId":"6600426529","entityType":"PERS","entityId":"2380202516","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2380202516","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300006","valueAmt":"11","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"Y","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"5410009203","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-09-25","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6600426529","modelId":"8882612276","entityId":"2380202516","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2380202516","entityType":"PERS","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4230014389","actionFlag":"OVRD","priceItemCode":"PI_022","priceItemDescription":"V2-Monthly Acct Serv Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-09-25","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300006","priceCompDesc":"FLAT","valueAmt":"11","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8882612276","dealId":"6600426529","entityType":"PERS","entityId":"2380202516","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2380202516","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"4238600693","valueAmt":"10","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"N","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"4230014389","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-10-20","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6600426529","modelId":"8882612276","entityId":"2380202516","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2380202516","entityType":"PERS","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4230014390","actionFlag":"OVRD","priceItemCode":"PI_022","priceItemDescription":"V2-Monthly Acct Serv Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-10-20","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"4238600693","priceCompDesc":"FLAT","valueAmt":"10","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0995465226","dealId":"5200387726","entityType":"PERS","entityId":"2380202516","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2380202516","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"13","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-09-25","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"5200387726","modelId":"0995465226","entityId":"2380202516","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2380202516","entityType":"PERS","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3880014180","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-09-25","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300004","priceCompDesc":"FLAT","valueAmt":"13","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0995465226","dealId":"5200387726","entityType":"PERS","entityId":"2380202516","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2380202516","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"3888600266","valueAmt":"12","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"N","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"3880014180","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-10-20","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"5200387726","modelId":"0995465226","entityId":"2380202516","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2380202516","entityType":"PERS","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3880014181","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-10-20","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"3888600266","priceCompDesc":"FLAT","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0995465226","dealId":"5200387726","entityType":"PERS","entityId":"2380202516","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2380202516","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300006","valueAmt":"11","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"Y","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"5410009203","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-09-25","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"5200387726","modelId":"0995465226","entityId":"2380202516","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2380202516","entityType":"PERS","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3880014182","actionFlag":"OVRD","priceItemCode":"PI_022","priceItemDescription":"V2-Monthly Acct Serv Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-09-25","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300006","priceCompDesc":"FLAT","valueAmt":"11","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0995465226","dealId":"5200387726","entityType":"PERS","entityId":"2380202516","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2380202516","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"3888600268","valueAmt":"10","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"N","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"3880014182","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-10-20","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"5200387726","modelId":"0995465226","entityId":"2380202516","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2380202516","entityType":"PERS","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3880014183","actionFlag":"OVRD","priceItemCode":"PI_022","priceItemDescription":"V2-Monthly Acct Serv Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-10-20","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"3888600268","priceCompDesc":"FLAT","valueAmt":"10","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
   </si>
 </sst>
 </file>
@@ -2385,11 +2400,26 @@
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2397,11 +2427,11 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2448,6 +2478,30 @@
     <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2465,45 +2519,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2797,8 +2812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DN263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="AF89" sqref="AF89"/>
+    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="D264" sqref="D264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3556,11 +3571,11 @@
       <c r="I16" s="14"/>
     </row>
     <row r="18" spans="1:117" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="137" t="s">
+      <c r="A18" s="129" t="s">
         <v>172</v>
       </c>
-      <c r="B18" s="137"/>
-      <c r="C18" s="137"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="129"/>
     </row>
     <row r="19" spans="1:117" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
@@ -3614,24 +3629,24 @@
       </c>
     </row>
     <row r="23" spans="1:117" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="138" t="s">
+      <c r="A23" s="130" t="s">
         <v>180</v>
       </c>
-      <c r="B23" s="139"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="139"/>
-      <c r="J23" s="139"/>
-      <c r="K23" s="139"/>
-      <c r="L23" s="139"/>
-      <c r="M23" s="139"/>
-      <c r="N23" s="139"/>
-      <c r="O23" s="139"/>
-      <c r="P23" s="139"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="131"/>
+      <c r="L23" s="131"/>
+      <c r="M23" s="131"/>
+      <c r="N23" s="131"/>
+      <c r="O23" s="131"/>
+      <c r="P23" s="131"/>
       <c r="BM23" s="16"/>
       <c r="BN23" s="16"/>
       <c r="BO23" s="16"/>
@@ -6508,12 +6523,12 @@
       <c r="DM56" s="16"/>
     </row>
     <row r="58" spans="1:117" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="140" t="s">
+      <c r="A58" s="132" t="s">
         <v>258</v>
       </c>
-      <c r="B58" s="141"/>
-      <c r="C58" s="141"/>
-      <c r="D58" s="142"/>
+      <c r="B58" s="133"/>
+      <c r="C58" s="133"/>
+      <c r="D58" s="134"/>
     </row>
     <row r="59" spans="1:117" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="26" t="s">
@@ -6551,12 +6566,12 @@
       </c>
     </row>
     <row r="62" spans="1:117" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="140" t="s">
+      <c r="A62" s="132" t="s">
         <v>252</v>
       </c>
-      <c r="B62" s="141"/>
-      <c r="C62" s="141"/>
-      <c r="D62" s="142"/>
+      <c r="B62" s="133"/>
+      <c r="C62" s="133"/>
+      <c r="D62" s="134"/>
     </row>
     <row r="63" spans="1:117" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
@@ -6668,17 +6683,17 @@
       <c r="G67" s="31"/>
     </row>
     <row r="69" spans="1:14" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="140" t="s">
+      <c r="A69" s="132" t="s">
         <v>237</v>
       </c>
-      <c r="B69" s="141"/>
-      <c r="C69" s="141"/>
-      <c r="D69" s="141"/>
-      <c r="E69" s="141"/>
-      <c r="F69" s="141"/>
-      <c r="G69" s="141"/>
-      <c r="H69" s="141"/>
-      <c r="I69" s="142"/>
+      <c r="B69" s="133"/>
+      <c r="C69" s="133"/>
+      <c r="D69" s="133"/>
+      <c r="E69" s="133"/>
+      <c r="F69" s="133"/>
+      <c r="G69" s="133"/>
+      <c r="H69" s="133"/>
+      <c r="I69" s="134"/>
     </row>
     <row r="70" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="25" t="s">
@@ -6748,11 +6763,11 @@
       <c r="I71" s="31"/>
       <c r="J71" s="41" t="str">
         <f ca="1">TEXT(TODAY()-60,"MM-DD-YYYY")</f>
-        <v>11-26-2022</v>
+        <v>06-12-2023</v>
       </c>
       <c r="K71" s="41" t="str">
         <f ca="1">TEXT(TODAY()-30,"MM-DD-YYYY")</f>
-        <v>12-26-2022</v>
+        <v>07-12-2023</v>
       </c>
       <c r="L71" s="32" t="s">
         <v>168</v>
@@ -6788,11 +6803,11 @@
       <c r="I72" s="31"/>
       <c r="J72" s="41" t="str">
         <f ca="1">TEXT(TODAY()-90,"MM-DD-YYYY")</f>
-        <v>10-27-2022</v>
+        <v>05-13-2023</v>
       </c>
       <c r="K72" s="41" t="str">
         <f ca="1">TEXT(TODAY()-61,"MM-DD-YYYY")</f>
-        <v>11-25-2022</v>
+        <v>06-11-2023</v>
       </c>
       <c r="L72" s="32" t="s">
         <v>168</v>
@@ -6828,11 +6843,11 @@
       <c r="I73" s="31"/>
       <c r="J73" s="41" t="str">
         <f ca="1">TEXT(TODAY()-120,"MM-DD-YYYY")</f>
-        <v>09-27-2022</v>
+        <v>04-13-2023</v>
       </c>
       <c r="K73" s="41" t="str">
         <f ca="1">TEXT(TODAY()-91,"MM-DD-YYYY")</f>
-        <v>10-26-2022</v>
+        <v>05-12-2023</v>
       </c>
       <c r="L73" s="32" t="s">
         <v>168</v>
@@ -6876,11 +6891,11 @@
       </c>
       <c r="J74" s="41" t="str">
         <f ca="1">TEXT(TODAY()-150,"MM-DD-YYYY")</f>
-        <v>08-28-2022</v>
+        <v>03-14-2023</v>
       </c>
       <c r="K74" s="41" t="str">
         <f ca="1">TEXT(TODAY()-121,"MM-DD-YYYY")</f>
-        <v>09-26-2022</v>
+        <v>04-12-2023</v>
       </c>
       <c r="L74" s="32" t="s">
         <v>168</v>
@@ -6924,11 +6939,11 @@
       </c>
       <c r="J75" s="41" t="str">
         <f ca="1">TEXT(TODAY()-180,"MM-DD-YYYY")</f>
-        <v>07-29-2022</v>
+        <v>02-12-2023</v>
       </c>
       <c r="K75" s="41" t="str">
         <f ca="1">TEXT(TODAY()-151,"MM-DD-YYYY")</f>
-        <v>08-27-2022</v>
+        <v>03-13-2023</v>
       </c>
       <c r="L75" s="32" t="s">
         <v>168</v>
@@ -6941,27 +6956,27 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="50.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="132" t="s">
+      <c r="A77" s="135" t="s">
         <v>267</v>
       </c>
-      <c r="B77" s="132"/>
-      <c r="C77" s="132"/>
-      <c r="D77" s="132"/>
-      <c r="E77" s="132"/>
-      <c r="F77" s="132"/>
-      <c r="G77" s="132"/>
-      <c r="H77" s="132"/>
-      <c r="I77" s="132"/>
-      <c r="J77" s="132"/>
-      <c r="K77" s="132"/>
+      <c r="B77" s="135"/>
+      <c r="C77" s="135"/>
+      <c r="D77" s="135"/>
+      <c r="E77" s="135"/>
+      <c r="F77" s="135"/>
+      <c r="G77" s="135"/>
+      <c r="H77" s="135"/>
+      <c r="I77" s="135"/>
+      <c r="J77" s="135"/>
+      <c r="K77" s="135"/>
     </row>
     <row r="79" spans="1:14" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="133" t="s">
+      <c r="A79" s="136" t="s">
         <v>268</v>
       </c>
-      <c r="B79" s="133"/>
-      <c r="C79" s="133"/>
-      <c r="D79" s="133"/>
+      <c r="B79" s="136"/>
+      <c r="C79" s="136"/>
+      <c r="D79" s="136"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="42" t="s">
@@ -7090,33 +7105,33 @@
       <c r="S84" s="47" t="s">
         <v>292</v>
       </c>
-      <c r="T84" s="127" t="s">
+      <c r="T84" s="140" t="s">
         <v>293</v>
       </c>
-      <c r="U84" s="128"/>
-      <c r="V84" s="129"/>
-      <c r="W84" s="127" t="s">
+      <c r="U84" s="141"/>
+      <c r="V84" s="142"/>
+      <c r="W84" s="140" t="s">
         <v>294</v>
       </c>
-      <c r="X84" s="129"/>
+      <c r="X84" s="142"/>
       <c r="Y84" s="48"/>
-      <c r="Z84" s="124" t="s">
+      <c r="Z84" s="137" t="s">
         <v>295</v>
       </c>
-      <c r="AA84" s="125"/>
-      <c r="AB84" s="125"/>
-      <c r="AC84" s="125"/>
-      <c r="AD84" s="125"/>
-      <c r="AE84" s="125"/>
-      <c r="AF84" s="126"/>
-      <c r="AG84" s="124" t="s">
+      <c r="AA84" s="138"/>
+      <c r="AB84" s="138"/>
+      <c r="AC84" s="138"/>
+      <c r="AD84" s="138"/>
+      <c r="AE84" s="138"/>
+      <c r="AF84" s="139"/>
+      <c r="AG84" s="137" t="s">
         <v>296</v>
       </c>
-      <c r="AH84" s="125"/>
-      <c r="AI84" s="125"/>
-      <c r="AJ84" s="125"/>
-      <c r="AK84" s="125"/>
-      <c r="AL84" s="126"/>
+      <c r="AH84" s="138"/>
+      <c r="AI84" s="138"/>
+      <c r="AJ84" s="138"/>
+      <c r="AK84" s="138"/>
+      <c r="AL84" s="139"/>
       <c r="AM84" s="49"/>
       <c r="AN84" s="50"/>
       <c r="AO84" s="50"/>
@@ -7302,11 +7317,11 @@
       </c>
       <c r="G86" s="57" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-03-11</v>
+        <v>2023-09-25</v>
       </c>
       <c r="H86" s="41" t="str">
         <f ca="1">TEXT(TODAY()-210,"YYYY-MM-DD")</f>
-        <v>2022-06-29</v>
+        <v>2023-01-13</v>
       </c>
       <c r="I86" s="55"/>
       <c r="J86" s="55">
@@ -7553,7 +7568,7 @@
       </c>
       <c r="C90" s="57" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-03-11</v>
+        <v>2023-09-25</v>
       </c>
       <c r="D90" s="33" t="s">
         <v>153</v>
@@ -7612,7 +7627,7 @@
       </c>
       <c r="C91" s="57" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-03-11</v>
+        <v>2023-09-25</v>
       </c>
       <c r="D91" s="33" t="s">
         <v>153</v>
@@ -7663,63 +7678,63 @@
       <c r="BZ91" s="51"/>
     </row>
     <row r="93" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A93" s="107" t="s">
+      <c r="A93" s="105" t="s">
         <v>363</v>
       </c>
-      <c r="B93" s="108"/>
-      <c r="C93" s="108"/>
-      <c r="D93" s="108"/>
-      <c r="E93" s="108"/>
-      <c r="F93" s="108"/>
-      <c r="G93" s="108"/>
-      <c r="H93" s="108"/>
-      <c r="I93" s="108"/>
-      <c r="J93" s="108"/>
+      <c r="B93" s="106"/>
+      <c r="C93" s="106"/>
+      <c r="D93" s="106"/>
+      <c r="E93" s="106"/>
+      <c r="F93" s="106"/>
+      <c r="G93" s="106"/>
+      <c r="H93" s="106"/>
+      <c r="I93" s="106"/>
+      <c r="J93" s="106"/>
     </row>
     <row r="94" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A94" s="62"/>
       <c r="B94" s="63"/>
-      <c r="C94" s="109" t="s">
+      <c r="C94" s="114" t="s">
         <v>339</v>
       </c>
-      <c r="D94" s="109"/>
-      <c r="E94" s="109"/>
-      <c r="F94" s="109"/>
-      <c r="G94" s="109"/>
-      <c r="H94" s="109"/>
-      <c r="I94" s="109"/>
-      <c r="J94" s="109"/>
-      <c r="K94" s="109"/>
+      <c r="D94" s="114"/>
+      <c r="E94" s="114"/>
+      <c r="F94" s="114"/>
+      <c r="G94" s="114"/>
+      <c r="H94" s="114"/>
+      <c r="I94" s="114"/>
+      <c r="J94" s="114"/>
+      <c r="K94" s="114"/>
     </row>
     <row r="95" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A95" s="110" t="s">
+      <c r="A95" s="115" t="s">
         <v>340</v>
       </c>
-      <c r="B95" s="110" t="s">
+      <c r="B95" s="115" t="s">
         <v>341</v>
       </c>
-      <c r="C95" s="105" t="s">
+      <c r="C95" s="110" t="s">
         <v>342</v>
       </c>
-      <c r="D95" s="112"/>
-      <c r="E95" s="112"/>
-      <c r="F95" s="106"/>
-      <c r="G95" s="103" t="s">
+      <c r="D95" s="117"/>
+      <c r="E95" s="117"/>
+      <c r="F95" s="111"/>
+      <c r="G95" s="112" t="s">
         <v>343</v>
       </c>
-      <c r="H95" s="113"/>
-      <c r="I95" s="113"/>
-      <c r="J95" s="104"/>
-      <c r="K95" s="110" t="s">
+      <c r="H95" s="118"/>
+      <c r="I95" s="118"/>
+      <c r="J95" s="113"/>
+      <c r="K95" s="115" t="s">
         <v>344</v>
       </c>
-      <c r="L95" s="110" t="s">
+      <c r="L95" s="115" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="96" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A96" s="111"/>
-      <c r="B96" s="111"/>
+      <c r="A96" s="116"/>
+      <c r="B96" s="116"/>
       <c r="C96" s="64" t="s">
         <v>346</v>
       </c>
@@ -7744,8 +7759,8 @@
       <c r="J96" s="65" t="s">
         <v>349</v>
       </c>
-      <c r="K96" s="111"/>
-      <c r="L96" s="111"/>
+      <c r="K96" s="116"/>
+      <c r="L96" s="116"/>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97" s="40" t="s">
@@ -7795,76 +7810,76 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="107" t="s">
+      <c r="A99" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="B99" s="108"/>
-      <c r="C99" s="108"/>
-      <c r="D99" s="108"/>
-      <c r="E99" s="108"/>
-      <c r="F99" s="108"/>
-      <c r="G99" s="108"/>
-      <c r="H99" s="108"/>
-      <c r="I99" s="108"/>
-      <c r="J99" s="108"/>
-      <c r="K99" s="108"/>
-      <c r="L99" s="108"/>
+      <c r="B99" s="106"/>
+      <c r="C99" s="106"/>
+      <c r="D99" s="106"/>
+      <c r="E99" s="106"/>
+      <c r="F99" s="106"/>
+      <c r="G99" s="106"/>
+      <c r="H99" s="106"/>
+      <c r="I99" s="106"/>
+      <c r="J99" s="106"/>
+      <c r="K99" s="106"/>
+      <c r="L99" s="106"/>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A100" s="134" t="s">
+      <c r="A100" s="107" t="s">
         <v>131</v>
       </c>
-      <c r="B100" s="134" t="s">
+      <c r="B100" s="107" t="s">
         <v>353</v>
       </c>
-      <c r="C100" s="116" t="s">
+      <c r="C100" s="121" t="s">
         <v>354</v>
       </c>
-      <c r="D100" s="119" t="s">
+      <c r="D100" s="124" t="s">
         <v>355</v>
       </c>
-      <c r="E100" s="122" t="s">
+      <c r="E100" s="127" t="s">
         <v>339</v>
       </c>
-      <c r="F100" s="122"/>
-      <c r="G100" s="122"/>
-      <c r="H100" s="122"/>
-      <c r="I100" s="123" t="s">
+      <c r="F100" s="127"/>
+      <c r="G100" s="127"/>
+      <c r="H100" s="127"/>
+      <c r="I100" s="128" t="s">
         <v>356</v>
       </c>
-      <c r="J100" s="123"/>
-      <c r="K100" s="123"/>
-      <c r="L100" s="123"/>
+      <c r="J100" s="128"/>
+      <c r="K100" s="128"/>
+      <c r="L100" s="128"/>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A101" s="135"/>
-      <c r="B101" s="135"/>
-      <c r="C101" s="117"/>
-      <c r="D101" s="120"/>
-      <c r="E101" s="105" t="s">
+      <c r="A101" s="108"/>
+      <c r="B101" s="108"/>
+      <c r="C101" s="122"/>
+      <c r="D101" s="125"/>
+      <c r="E101" s="110" t="s">
         <v>357</v>
       </c>
-      <c r="F101" s="106"/>
-      <c r="G101" s="103" t="s">
+      <c r="F101" s="111"/>
+      <c r="G101" s="112" t="s">
         <v>343</v>
       </c>
-      <c r="H101" s="104"/>
-      <c r="I101" s="105" t="s">
+      <c r="H101" s="113"/>
+      <c r="I101" s="110" t="s">
         <v>357</v>
       </c>
-      <c r="J101" s="106"/>
-      <c r="K101" s="103" t="s">
+      <c r="J101" s="111"/>
+      <c r="K101" s="112" t="s">
         <v>343</v>
       </c>
-      <c r="L101" s="104"/>
+      <c r="L101" s="113"/>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A102" s="136"/>
-      <c r="B102" s="136" t="s">
+      <c r="A102" s="109"/>
+      <c r="B102" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="C102" s="118"/>
-      <c r="D102" s="121"/>
+      <c r="C102" s="123"/>
+      <c r="D102" s="126"/>
       <c r="E102" s="64" t="s">
         <v>358</v>
       </c>
@@ -7939,61 +7954,61 @@
       </c>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A105" s="107" t="s">
+      <c r="A105" s="105" t="s">
         <v>363</v>
       </c>
-      <c r="B105" s="108"/>
-      <c r="C105" s="108"/>
-      <c r="D105" s="108"/>
-      <c r="E105" s="108"/>
-      <c r="F105" s="108"/>
-      <c r="G105" s="108"/>
-      <c r="H105" s="108"/>
-      <c r="I105" s="108"/>
-      <c r="J105" s="108"/>
+      <c r="B105" s="106"/>
+      <c r="C105" s="106"/>
+      <c r="D105" s="106"/>
+      <c r="E105" s="106"/>
+      <c r="F105" s="106"/>
+      <c r="G105" s="106"/>
+      <c r="H105" s="106"/>
+      <c r="I105" s="106"/>
+      <c r="J105" s="106"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A106" s="62"/>
       <c r="B106" s="63"/>
-      <c r="C106" s="109" t="s">
+      <c r="C106" s="114" t="s">
         <v>339</v>
       </c>
-      <c r="D106" s="109"/>
-      <c r="E106" s="109"/>
-      <c r="F106" s="109"/>
-      <c r="G106" s="109"/>
-      <c r="H106" s="109"/>
-      <c r="I106" s="109"/>
-      <c r="J106" s="109"/>
-      <c r="K106" s="109"/>
+      <c r="D106" s="114"/>
+      <c r="E106" s="114"/>
+      <c r="F106" s="114"/>
+      <c r="G106" s="114"/>
+      <c r="H106" s="114"/>
+      <c r="I106" s="114"/>
+      <c r="J106" s="114"/>
+      <c r="K106" s="114"/>
       <c r="Z106" s="69"/>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A107" s="110" t="s">
+      <c r="A107" s="115" t="s">
         <v>340</v>
       </c>
-      <c r="B107" s="110" t="s">
+      <c r="B107" s="115" t="s">
         <v>341</v>
       </c>
-      <c r="C107" s="105" t="s">
+      <c r="C107" s="110" t="s">
         <v>342</v>
       </c>
-      <c r="D107" s="112"/>
-      <c r="E107" s="112"/>
-      <c r="F107" s="106"/>
-      <c r="G107" s="103" t="s">
+      <c r="D107" s="117"/>
+      <c r="E107" s="117"/>
+      <c r="F107" s="111"/>
+      <c r="G107" s="112" t="s">
         <v>343</v>
       </c>
-      <c r="H107" s="113"/>
-      <c r="I107" s="113"/>
-      <c r="J107" s="104"/>
-      <c r="K107" s="114" t="s">
+      <c r="H107" s="118"/>
+      <c r="I107" s="118"/>
+      <c r="J107" s="113"/>
+      <c r="K107" s="119" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A108" s="111"/>
-      <c r="B108" s="111"/>
+      <c r="A108" s="116"/>
+      <c r="B108" s="116"/>
       <c r="C108" s="64" t="s">
         <v>346</v>
       </c>
@@ -8018,7 +8033,7 @@
       <c r="J108" s="65" t="s">
         <v>349</v>
       </c>
-      <c r="K108" s="115"/>
+      <c r="K108" s="120"/>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A109" s="55" t="s">
@@ -8129,7 +8144,7 @@
       <c r="I113" s="72"/>
       <c r="J113" s="73">
         <f ca="1">TODAY()</f>
-        <v>44951</v>
+        <v>45149</v>
       </c>
       <c r="K113" s="73">
         <v>234</v>
@@ -8235,33 +8250,33 @@
       <c r="S116" s="47" t="s">
         <v>292</v>
       </c>
-      <c r="T116" s="127" t="s">
+      <c r="T116" s="140" t="s">
         <v>293</v>
       </c>
-      <c r="U116" s="128"/>
-      <c r="V116" s="129"/>
-      <c r="W116" s="127" t="s">
+      <c r="U116" s="141"/>
+      <c r="V116" s="142"/>
+      <c r="W116" s="140" t="s">
         <v>294</v>
       </c>
-      <c r="X116" s="129"/>
+      <c r="X116" s="142"/>
       <c r="Y116" s="96"/>
-      <c r="Z116" s="124" t="s">
+      <c r="Z116" s="137" t="s">
         <v>295</v>
       </c>
-      <c r="AA116" s="125"/>
-      <c r="AB116" s="125"/>
-      <c r="AC116" s="125"/>
-      <c r="AD116" s="125"/>
-      <c r="AE116" s="125"/>
-      <c r="AF116" s="126"/>
-      <c r="AG116" s="124" t="s">
+      <c r="AA116" s="138"/>
+      <c r="AB116" s="138"/>
+      <c r="AC116" s="138"/>
+      <c r="AD116" s="138"/>
+      <c r="AE116" s="138"/>
+      <c r="AF116" s="139"/>
+      <c r="AG116" s="137" t="s">
         <v>296</v>
       </c>
-      <c r="AH116" s="125"/>
-      <c r="AI116" s="125"/>
-      <c r="AJ116" s="125"/>
-      <c r="AK116" s="125"/>
-      <c r="AL116" s="126"/>
+      <c r="AH116" s="138"/>
+      <c r="AI116" s="138"/>
+      <c r="AJ116" s="138"/>
+      <c r="AK116" s="138"/>
+      <c r="AL116" s="139"/>
       <c r="AM116" s="49"/>
       <c r="AN116" s="50"/>
       <c r="AO116" s="50"/>
@@ -8447,11 +8462,11 @@
       </c>
       <c r="G118" s="57" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-03-11</v>
+        <v>2023-09-25</v>
       </c>
       <c r="H118" s="41" t="str">
         <f ca="1">TEXT(TODAY()-210,"YYYY-MM-DD")</f>
-        <v>2022-06-29</v>
+        <v>2023-01-13</v>
       </c>
       <c r="I118" s="55"/>
       <c r="J118" s="55">
@@ -8573,63 +8588,63 @@
       <c r="BZ118" s="51"/>
     </row>
     <row r="120" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A120" s="107" t="s">
+      <c r="A120" s="105" t="s">
         <v>363</v>
       </c>
-      <c r="B120" s="108"/>
-      <c r="C120" s="108"/>
-      <c r="D120" s="108"/>
-      <c r="E120" s="108"/>
-      <c r="F120" s="108"/>
-      <c r="G120" s="108"/>
-      <c r="H120" s="108"/>
-      <c r="I120" s="108"/>
-      <c r="J120" s="108"/>
+      <c r="B120" s="106"/>
+      <c r="C120" s="106"/>
+      <c r="D120" s="106"/>
+      <c r="E120" s="106"/>
+      <c r="F120" s="106"/>
+      <c r="G120" s="106"/>
+      <c r="H120" s="106"/>
+      <c r="I120" s="106"/>
+      <c r="J120" s="106"/>
     </row>
     <row r="121" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A121" s="94"/>
       <c r="B121" s="95"/>
-      <c r="C121" s="109" t="s">
+      <c r="C121" s="114" t="s">
         <v>339</v>
       </c>
-      <c r="D121" s="109"/>
-      <c r="E121" s="109"/>
-      <c r="F121" s="109"/>
-      <c r="G121" s="109"/>
-      <c r="H121" s="109"/>
-      <c r="I121" s="109"/>
-      <c r="J121" s="109"/>
-      <c r="K121" s="109"/>
+      <c r="D121" s="114"/>
+      <c r="E121" s="114"/>
+      <c r="F121" s="114"/>
+      <c r="G121" s="114"/>
+      <c r="H121" s="114"/>
+      <c r="I121" s="114"/>
+      <c r="J121" s="114"/>
+      <c r="K121" s="114"/>
     </row>
     <row r="122" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A122" s="110" t="s">
+      <c r="A122" s="115" t="s">
         <v>340</v>
       </c>
-      <c r="B122" s="110" t="s">
+      <c r="B122" s="115" t="s">
         <v>341</v>
       </c>
-      <c r="C122" s="105" t="s">
+      <c r="C122" s="110" t="s">
         <v>342</v>
       </c>
-      <c r="D122" s="112"/>
-      <c r="E122" s="112"/>
-      <c r="F122" s="106"/>
-      <c r="G122" s="103" t="s">
+      <c r="D122" s="117"/>
+      <c r="E122" s="117"/>
+      <c r="F122" s="111"/>
+      <c r="G122" s="112" t="s">
         <v>343</v>
       </c>
-      <c r="H122" s="113"/>
-      <c r="I122" s="113"/>
-      <c r="J122" s="104"/>
-      <c r="K122" s="110" t="s">
+      <c r="H122" s="118"/>
+      <c r="I122" s="118"/>
+      <c r="J122" s="113"/>
+      <c r="K122" s="115" t="s">
         <v>344</v>
       </c>
-      <c r="L122" s="110" t="s">
+      <c r="L122" s="115" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="123" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A123" s="111"/>
-      <c r="B123" s="111"/>
+      <c r="A123" s="116"/>
+      <c r="B123" s="116"/>
       <c r="C123" s="64" t="s">
         <v>346</v>
       </c>
@@ -8654,8 +8669,8 @@
       <c r="J123" s="65" t="s">
         <v>349</v>
       </c>
-      <c r="K123" s="111"/>
-      <c r="L123" s="111"/>
+      <c r="K123" s="116"/>
+      <c r="L123" s="116"/>
     </row>
     <row r="124" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A124" s="40" t="s">
@@ -8705,76 +8720,76 @@
       </c>
     </row>
     <row r="126" spans="1:78" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="107" t="s">
+      <c r="A126" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="B126" s="108"/>
-      <c r="C126" s="108"/>
-      <c r="D126" s="108"/>
-      <c r="E126" s="108"/>
-      <c r="F126" s="108"/>
-      <c r="G126" s="108"/>
-      <c r="H126" s="108"/>
-      <c r="I126" s="108"/>
-      <c r="J126" s="108"/>
-      <c r="K126" s="108"/>
-      <c r="L126" s="108"/>
+      <c r="B126" s="106"/>
+      <c r="C126" s="106"/>
+      <c r="D126" s="106"/>
+      <c r="E126" s="106"/>
+      <c r="F126" s="106"/>
+      <c r="G126" s="106"/>
+      <c r="H126" s="106"/>
+      <c r="I126" s="106"/>
+      <c r="J126" s="106"/>
+      <c r="K126" s="106"/>
+      <c r="L126" s="106"/>
     </row>
     <row r="127" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A127" s="134" t="s">
+      <c r="A127" s="107" t="s">
         <v>131</v>
       </c>
-      <c r="B127" s="134" t="s">
+      <c r="B127" s="107" t="s">
         <v>353</v>
       </c>
-      <c r="C127" s="116" t="s">
+      <c r="C127" s="121" t="s">
         <v>354</v>
       </c>
-      <c r="D127" s="119" t="s">
+      <c r="D127" s="124" t="s">
         <v>355</v>
       </c>
-      <c r="E127" s="122" t="s">
+      <c r="E127" s="127" t="s">
         <v>339</v>
       </c>
-      <c r="F127" s="122"/>
-      <c r="G127" s="122"/>
-      <c r="H127" s="122"/>
-      <c r="I127" s="123" t="s">
+      <c r="F127" s="127"/>
+      <c r="G127" s="127"/>
+      <c r="H127" s="127"/>
+      <c r="I127" s="128" t="s">
         <v>356</v>
       </c>
-      <c r="J127" s="123"/>
-      <c r="K127" s="123"/>
-      <c r="L127" s="123"/>
+      <c r="J127" s="128"/>
+      <c r="K127" s="128"/>
+      <c r="L127" s="128"/>
     </row>
     <row r="128" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A128" s="135"/>
-      <c r="B128" s="135"/>
-      <c r="C128" s="117"/>
-      <c r="D128" s="120"/>
-      <c r="E128" s="105" t="s">
+      <c r="A128" s="108"/>
+      <c r="B128" s="108"/>
+      <c r="C128" s="122"/>
+      <c r="D128" s="125"/>
+      <c r="E128" s="110" t="s">
         <v>357</v>
       </c>
-      <c r="F128" s="106"/>
-      <c r="G128" s="103" t="s">
+      <c r="F128" s="111"/>
+      <c r="G128" s="112" t="s">
         <v>343</v>
       </c>
-      <c r="H128" s="104"/>
-      <c r="I128" s="105" t="s">
+      <c r="H128" s="113"/>
+      <c r="I128" s="110" t="s">
         <v>357</v>
       </c>
-      <c r="J128" s="106"/>
-      <c r="K128" s="103" t="s">
+      <c r="J128" s="111"/>
+      <c r="K128" s="112" t="s">
         <v>343</v>
       </c>
-      <c r="L128" s="104"/>
+      <c r="L128" s="113"/>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A129" s="136"/>
-      <c r="B129" s="136" t="s">
+      <c r="A129" s="109"/>
+      <c r="B129" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="C129" s="118"/>
-      <c r="D129" s="121"/>
+      <c r="C129" s="123"/>
+      <c r="D129" s="126"/>
       <c r="E129" s="64" t="s">
         <v>358</v>
       </c>
@@ -8849,61 +8864,61 @@
       </c>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A132" s="107" t="s">
+      <c r="A132" s="105" t="s">
         <v>363</v>
       </c>
-      <c r="B132" s="108"/>
-      <c r="C132" s="108"/>
-      <c r="D132" s="108"/>
-      <c r="E132" s="108"/>
-      <c r="F132" s="108"/>
-      <c r="G132" s="108"/>
-      <c r="H132" s="108"/>
-      <c r="I132" s="108"/>
-      <c r="J132" s="108"/>
+      <c r="B132" s="106"/>
+      <c r="C132" s="106"/>
+      <c r="D132" s="106"/>
+      <c r="E132" s="106"/>
+      <c r="F132" s="106"/>
+      <c r="G132" s="106"/>
+      <c r="H132" s="106"/>
+      <c r="I132" s="106"/>
+      <c r="J132" s="106"/>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A133" s="94"/>
       <c r="B133" s="95"/>
-      <c r="C133" s="109" t="s">
+      <c r="C133" s="114" t="s">
         <v>339</v>
       </c>
-      <c r="D133" s="109"/>
-      <c r="E133" s="109"/>
-      <c r="F133" s="109"/>
-      <c r="G133" s="109"/>
-      <c r="H133" s="109"/>
-      <c r="I133" s="109"/>
-      <c r="J133" s="109"/>
-      <c r="K133" s="109"/>
+      <c r="D133" s="114"/>
+      <c r="E133" s="114"/>
+      <c r="F133" s="114"/>
+      <c r="G133" s="114"/>
+      <c r="H133" s="114"/>
+      <c r="I133" s="114"/>
+      <c r="J133" s="114"/>
+      <c r="K133" s="114"/>
       <c r="Z133" s="69"/>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A134" s="110" t="s">
+      <c r="A134" s="115" t="s">
         <v>340</v>
       </c>
-      <c r="B134" s="110" t="s">
+      <c r="B134" s="115" t="s">
         <v>341</v>
       </c>
-      <c r="C134" s="105" t="s">
+      <c r="C134" s="110" t="s">
         <v>342</v>
       </c>
-      <c r="D134" s="112"/>
-      <c r="E134" s="112"/>
-      <c r="F134" s="106"/>
-      <c r="G134" s="103" t="s">
+      <c r="D134" s="117"/>
+      <c r="E134" s="117"/>
+      <c r="F134" s="111"/>
+      <c r="G134" s="112" t="s">
         <v>343</v>
       </c>
-      <c r="H134" s="113"/>
-      <c r="I134" s="113"/>
-      <c r="J134" s="104"/>
-      <c r="K134" s="114" t="s">
+      <c r="H134" s="118"/>
+      <c r="I134" s="118"/>
+      <c r="J134" s="113"/>
+      <c r="K134" s="119" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A135" s="111"/>
-      <c r="B135" s="111"/>
+      <c r="A135" s="116"/>
+      <c r="B135" s="116"/>
       <c r="C135" s="64" t="s">
         <v>346</v>
       </c>
@@ -8928,7 +8943,7 @@
       <c r="J135" s="65" t="s">
         <v>349</v>
       </c>
-      <c r="K135" s="115"/>
+      <c r="K135" s="120"/>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A136" s="55" t="s">
@@ -9039,7 +9054,7 @@
       <c r="I140" s="72"/>
       <c r="J140" s="73">
         <f ca="1">TODAY()</f>
-        <v>44951</v>
+        <v>45149</v>
       </c>
       <c r="K140" s="73">
         <v>234</v>
@@ -9072,7 +9087,7 @@
     <row r="144" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A144" s="74" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-01-25</v>
+        <v>2023-08-11</v>
       </c>
       <c r="B144" s="75" t="s">
         <v>383</v>
@@ -9087,7 +9102,7 @@
     <row r="145" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A145" s="74" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-01-25</v>
+        <v>2023-08-11</v>
       </c>
       <c r="B145" s="75" t="s">
         <v>384</v>
@@ -9102,7 +9117,7 @@
     <row r="146" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A146" s="74" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-01-25</v>
+        <v>2023-08-11</v>
       </c>
       <c r="B146" s="75" t="s">
         <v>385</v>
@@ -9115,26 +9130,26 @@
       </c>
     </row>
     <row r="148" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A148" s="130" t="s">
+      <c r="A148" s="103" t="s">
         <v>490</v>
       </c>
-      <c r="B148" s="131"/>
-      <c r="C148" s="131"/>
-      <c r="D148" s="131"/>
-      <c r="E148" s="131"/>
-      <c r="F148" s="131"/>
-      <c r="G148" s="131"/>
-      <c r="H148" s="131"/>
-      <c r="I148" s="131"/>
-      <c r="J148" s="131"/>
-      <c r="K148" s="131"/>
-      <c r="L148" s="131"/>
-      <c r="M148" s="131"/>
-      <c r="N148" s="131"/>
-      <c r="O148" s="131"/>
-      <c r="P148" s="131"/>
-      <c r="Q148" s="131"/>
-      <c r="R148" s="131"/>
+      <c r="B148" s="104"/>
+      <c r="C148" s="104"/>
+      <c r="D148" s="104"/>
+      <c r="E148" s="104"/>
+      <c r="F148" s="104"/>
+      <c r="G148" s="104"/>
+      <c r="H148" s="104"/>
+      <c r="I148" s="104"/>
+      <c r="J148" s="104"/>
+      <c r="K148" s="104"/>
+      <c r="L148" s="104"/>
+      <c r="M148" s="104"/>
+      <c r="N148" s="104"/>
+      <c r="O148" s="104"/>
+      <c r="P148" s="104"/>
+      <c r="Q148" s="104"/>
+      <c r="R148" s="104"/>
       <c r="S148" s="63"/>
       <c r="T148" s="63"/>
       <c r="U148" s="63"/>
@@ -9234,7 +9249,7 @@
       </c>
       <c r="D150" s="81" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-01-25</v>
+        <v>2023-08-11</v>
       </c>
       <c r="E150" s="81"/>
       <c r="F150" s="81" t="str">
@@ -9299,7 +9314,7 @@
       </c>
       <c r="D151" s="80" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-03-11</v>
+        <v>2023-09-25</v>
       </c>
       <c r="E151" s="80"/>
       <c r="F151" s="80">
@@ -9365,7 +9380,10 @@
       </c>
       <c r="Z151" s="79"/>
       <c r="AU151" t="s">
-        <v>530</v>
+        <v>533</v>
+      </c>
+      <c r="AV151" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="152" spans="1:47" x14ac:dyDescent="0.35">
@@ -9378,7 +9396,7 @@
       </c>
       <c r="D152" s="84" t="str">
         <f ca="1">TEXT(TODAY()+70,"YYYY-MM-DD")</f>
-        <v>2023-04-05</v>
+        <v>2023-10-20</v>
       </c>
       <c r="E152" s="84"/>
       <c r="F152" s="84">
@@ -9442,30 +9460,33 @@
       </c>
       <c r="Z152" s="84"/>
       <c r="AU152" t="s">
-        <v>531</v>
+        <v>535</v>
+      </c>
+      <c r="AV152" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="154" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A154" s="130" t="s">
+      <c r="A154" s="103" t="s">
         <v>489</v>
       </c>
-      <c r="B154" s="131"/>
-      <c r="C154" s="131"/>
-      <c r="D154" s="131"/>
-      <c r="E154" s="131"/>
-      <c r="F154" s="131"/>
-      <c r="G154" s="131"/>
-      <c r="H154" s="131"/>
-      <c r="I154" s="131"/>
-      <c r="J154" s="131"/>
-      <c r="K154" s="131"/>
-      <c r="L154" s="131"/>
-      <c r="M154" s="131"/>
-      <c r="N154" s="131"/>
-      <c r="O154" s="131"/>
-      <c r="P154" s="131"/>
-      <c r="Q154" s="131"/>
-      <c r="R154" s="131"/>
+      <c r="B154" s="104"/>
+      <c r="C154" s="104"/>
+      <c r="D154" s="104"/>
+      <c r="E154" s="104"/>
+      <c r="F154" s="104"/>
+      <c r="G154" s="104"/>
+      <c r="H154" s="104"/>
+      <c r="I154" s="104"/>
+      <c r="J154" s="104"/>
+      <c r="K154" s="104"/>
+      <c r="L154" s="104"/>
+      <c r="M154" s="104"/>
+      <c r="N154" s="104"/>
+      <c r="O154" s="104"/>
+      <c r="P154" s="104"/>
+      <c r="Q154" s="104"/>
+      <c r="R154" s="104"/>
       <c r="S154" s="82"/>
       <c r="T154" s="82"/>
       <c r="U154" s="82"/>
@@ -9565,7 +9586,7 @@
       </c>
       <c r="D156" s="81" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-01-25</v>
+        <v>2023-08-11</v>
       </c>
       <c r="E156" s="81"/>
       <c r="F156" s="81" t="s">
@@ -9699,7 +9720,7 @@
       </c>
       <c r="D158" s="80" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-03-11</v>
+        <v>2023-09-25</v>
       </c>
       <c r="E158" s="79"/>
       <c r="F158" s="79" t="s">
@@ -9770,7 +9791,7 @@
       </c>
       <c r="D159" s="84" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-02-24</v>
+        <v>2023-09-10</v>
       </c>
       <c r="E159" s="84"/>
       <c r="F159" s="84" t="s">
@@ -9832,26 +9853,26 @@
       </c>
     </row>
     <row r="161" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A161" s="130" t="s">
+      <c r="A161" s="103" t="s">
         <v>488</v>
       </c>
-      <c r="B161" s="131"/>
-      <c r="C161" s="131"/>
-      <c r="D161" s="131"/>
-      <c r="E161" s="131"/>
-      <c r="F161" s="131"/>
-      <c r="G161" s="131"/>
-      <c r="H161" s="131"/>
-      <c r="I161" s="131"/>
-      <c r="J161" s="131"/>
-      <c r="K161" s="131"/>
-      <c r="L161" s="131"/>
-      <c r="M161" s="131"/>
-      <c r="N161" s="131"/>
-      <c r="O161" s="131"/>
-      <c r="P161" s="131"/>
-      <c r="Q161" s="131"/>
-      <c r="R161" s="131"/>
+      <c r="B161" s="104"/>
+      <c r="C161" s="104"/>
+      <c r="D161" s="104"/>
+      <c r="E161" s="104"/>
+      <c r="F161" s="104"/>
+      <c r="G161" s="104"/>
+      <c r="H161" s="104"/>
+      <c r="I161" s="104"/>
+      <c r="J161" s="104"/>
+      <c r="K161" s="104"/>
+      <c r="L161" s="104"/>
+      <c r="M161" s="104"/>
+      <c r="N161" s="104"/>
+      <c r="O161" s="104"/>
+      <c r="P161" s="104"/>
+      <c r="Q161" s="104"/>
+      <c r="R161" s="104"/>
       <c r="S161" s="83"/>
       <c r="T161" s="83"/>
       <c r="U161" s="83"/>
@@ -9951,7 +9972,7 @@
       </c>
       <c r="D163" s="81" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-01-25</v>
+        <v>2023-08-11</v>
       </c>
       <c r="E163" s="81"/>
       <c r="F163" s="81" t="s">
@@ -10083,7 +10104,7 @@
       </c>
       <c r="D165" s="80" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-03-11</v>
+        <v>2023-09-25</v>
       </c>
       <c r="E165" s="79"/>
       <c r="F165" s="79" t="s">
@@ -10154,7 +10175,7 @@
       </c>
       <c r="D166" s="84" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-02-24</v>
+        <v>2023-09-10</v>
       </c>
       <c r="E166" s="84"/>
       <c r="F166" s="84" t="s">
@@ -10216,26 +10237,26 @@
       </c>
     </row>
     <row r="168" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A168" s="130" t="s">
+      <c r="A168" s="103" t="s">
         <v>487</v>
       </c>
-      <c r="B168" s="131"/>
-      <c r="C168" s="131"/>
-      <c r="D168" s="131"/>
-      <c r="E168" s="131"/>
-      <c r="F168" s="131"/>
-      <c r="G168" s="131"/>
-      <c r="H168" s="131"/>
-      <c r="I168" s="131"/>
-      <c r="J168" s="131"/>
-      <c r="K168" s="131"/>
-      <c r="L168" s="131"/>
-      <c r="M168" s="131"/>
-      <c r="N168" s="131"/>
-      <c r="O168" s="131"/>
-      <c r="P168" s="131"/>
-      <c r="Q168" s="131"/>
-      <c r="R168" s="131"/>
+      <c r="B168" s="104"/>
+      <c r="C168" s="104"/>
+      <c r="D168" s="104"/>
+      <c r="E168" s="104"/>
+      <c r="F168" s="104"/>
+      <c r="G168" s="104"/>
+      <c r="H168" s="104"/>
+      <c r="I168" s="104"/>
+      <c r="J168" s="104"/>
+      <c r="K168" s="104"/>
+      <c r="L168" s="104"/>
+      <c r="M168" s="104"/>
+      <c r="N168" s="104"/>
+      <c r="O168" s="104"/>
+      <c r="P168" s="104"/>
+      <c r="Q168" s="104"/>
+      <c r="R168" s="104"/>
       <c r="S168" s="86"/>
       <c r="T168" s="86"/>
       <c r="U168" s="86"/>
@@ -10337,7 +10358,7 @@
       </c>
       <c r="D170" s="81" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-01-25</v>
+        <v>2023-08-11</v>
       </c>
       <c r="E170" s="81"/>
       <c r="F170" s="81" t="str">
@@ -10483,7 +10504,7 @@
       </c>
       <c r="D172" s="80" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-03-11</v>
+        <v>2023-09-25</v>
       </c>
       <c r="E172" s="79"/>
       <c r="F172" s="79" t="s">
@@ -10560,7 +10581,7 @@
       </c>
       <c r="D173" s="84" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-02-24</v>
+        <v>2023-09-10</v>
       </c>
       <c r="E173" s="84"/>
       <c r="F173" s="84" t="s">
@@ -10626,26 +10647,26 @@
       </c>
     </row>
     <row r="175" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A175" s="130" t="s">
+      <c r="A175" s="103" t="s">
         <v>487</v>
       </c>
-      <c r="B175" s="131"/>
-      <c r="C175" s="131"/>
-      <c r="D175" s="131"/>
-      <c r="E175" s="131"/>
-      <c r="F175" s="131"/>
-      <c r="G175" s="131"/>
-      <c r="H175" s="131"/>
-      <c r="I175" s="131"/>
-      <c r="J175" s="131"/>
-      <c r="K175" s="131"/>
-      <c r="L175" s="131"/>
-      <c r="M175" s="131"/>
-      <c r="N175" s="131"/>
-      <c r="O175" s="131"/>
-      <c r="P175" s="131"/>
-      <c r="Q175" s="131"/>
-      <c r="R175" s="131"/>
+      <c r="B175" s="104"/>
+      <c r="C175" s="104"/>
+      <c r="D175" s="104"/>
+      <c r="E175" s="104"/>
+      <c r="F175" s="104"/>
+      <c r="G175" s="104"/>
+      <c r="H175" s="104"/>
+      <c r="I175" s="104"/>
+      <c r="J175" s="104"/>
+      <c r="K175" s="104"/>
+      <c r="L175" s="104"/>
+      <c r="M175" s="104"/>
+      <c r="N175" s="104"/>
+      <c r="O175" s="104"/>
+      <c r="P175" s="104"/>
+      <c r="Q175" s="104"/>
+      <c r="R175" s="104"/>
       <c r="S175" s="87"/>
       <c r="T175" s="87"/>
       <c r="U175" s="87"/>
@@ -10747,7 +10768,7 @@
       </c>
       <c r="D177" s="81" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-01-25</v>
+        <v>2023-08-11</v>
       </c>
       <c r="E177" s="81"/>
       <c r="F177" s="81" t="s">
@@ -10879,7 +10900,7 @@
       </c>
       <c r="D179" s="80" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-03-11</v>
+        <v>2023-09-25</v>
       </c>
       <c r="E179" s="88"/>
       <c r="F179" s="88" t="s">
@@ -10942,7 +10963,7 @@
       </c>
       <c r="D180" s="84" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-02-24</v>
+        <v>2023-09-10</v>
       </c>
       <c r="E180" s="84"/>
       <c r="F180" s="84" t="s">
@@ -10994,26 +11015,26 @@
       </c>
     </row>
     <row r="182" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A182" s="130" t="s">
+      <c r="A182" s="103" t="s">
         <v>487</v>
       </c>
-      <c r="B182" s="131"/>
-      <c r="C182" s="131"/>
-      <c r="D182" s="131"/>
-      <c r="E182" s="131"/>
-      <c r="F182" s="131"/>
-      <c r="G182" s="131"/>
-      <c r="H182" s="131"/>
-      <c r="I182" s="131"/>
-      <c r="J182" s="131"/>
-      <c r="K182" s="131"/>
-      <c r="L182" s="131"/>
-      <c r="M182" s="131"/>
-      <c r="N182" s="131"/>
-      <c r="O182" s="131"/>
-      <c r="P182" s="131"/>
-      <c r="Q182" s="131"/>
-      <c r="R182" s="131"/>
+      <c r="B182" s="104"/>
+      <c r="C182" s="104"/>
+      <c r="D182" s="104"/>
+      <c r="E182" s="104"/>
+      <c r="F182" s="104"/>
+      <c r="G182" s="104"/>
+      <c r="H182" s="104"/>
+      <c r="I182" s="104"/>
+      <c r="J182" s="104"/>
+      <c r="K182" s="104"/>
+      <c r="L182" s="104"/>
+      <c r="M182" s="104"/>
+      <c r="N182" s="104"/>
+      <c r="O182" s="104"/>
+      <c r="P182" s="104"/>
+      <c r="Q182" s="104"/>
+      <c r="R182" s="104"/>
       <c r="S182" s="97"/>
       <c r="T182" s="97"/>
       <c r="U182" s="97"/>
@@ -11115,7 +11136,7 @@
       </c>
       <c r="D184" s="81" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-01-25</v>
+        <v>2023-08-11</v>
       </c>
       <c r="E184" s="81"/>
       <c r="F184" s="81" t="s">
@@ -11246,7 +11267,7 @@
       </c>
       <c r="D186" s="80" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-03-11</v>
+        <v>2023-09-25</v>
       </c>
       <c r="E186" s="88"/>
       <c r="F186" s="88" t="s">
@@ -11309,7 +11330,7 @@
       </c>
       <c r="D187" s="84" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-02-24</v>
+        <v>2023-09-10</v>
       </c>
       <c r="E187" s="84"/>
       <c r="F187" s="84" t="s">
@@ -11361,26 +11382,26 @@
       </c>
     </row>
     <row r="189" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A189" s="130" t="s">
+      <c r="A189" s="103" t="s">
         <v>487</v>
       </c>
-      <c r="B189" s="131"/>
-      <c r="C189" s="131"/>
-      <c r="D189" s="131"/>
-      <c r="E189" s="131"/>
-      <c r="F189" s="131"/>
-      <c r="G189" s="131"/>
-      <c r="H189" s="131"/>
-      <c r="I189" s="131"/>
-      <c r="J189" s="131"/>
-      <c r="K189" s="131"/>
-      <c r="L189" s="131"/>
-      <c r="M189" s="131"/>
-      <c r="N189" s="131"/>
-      <c r="O189" s="131"/>
-      <c r="P189" s="131"/>
-      <c r="Q189" s="131"/>
-      <c r="R189" s="131"/>
+      <c r="B189" s="104"/>
+      <c r="C189" s="104"/>
+      <c r="D189" s="104"/>
+      <c r="E189" s="104"/>
+      <c r="F189" s="104"/>
+      <c r="G189" s="104"/>
+      <c r="H189" s="104"/>
+      <c r="I189" s="104"/>
+      <c r="J189" s="104"/>
+      <c r="K189" s="104"/>
+      <c r="L189" s="104"/>
+      <c r="M189" s="104"/>
+      <c r="N189" s="104"/>
+      <c r="O189" s="104"/>
+      <c r="P189" s="104"/>
+      <c r="Q189" s="104"/>
+      <c r="R189" s="104"/>
       <c r="S189" s="90"/>
       <c r="T189" s="90"/>
       <c r="U189" s="90"/>
@@ -11480,7 +11501,7 @@
       </c>
       <c r="D191" s="81" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-01-25</v>
+        <v>2023-08-11</v>
       </c>
       <c r="E191" s="81"/>
       <c r="F191" s="81" t="str">
@@ -11617,7 +11638,7 @@
       </c>
       <c r="D193" s="80" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-03-11</v>
+        <v>2023-09-25</v>
       </c>
       <c r="E193" s="79"/>
       <c r="F193" s="80">
@@ -11687,7 +11708,7 @@
       </c>
       <c r="D194" s="84" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-02-24</v>
+        <v>2023-09-10</v>
       </c>
       <c r="E194" s="84"/>
       <c r="F194" s="84">
@@ -11748,26 +11769,26 @@
       </c>
     </row>
     <row r="196" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A196" s="130" t="s">
+      <c r="A196" s="103" t="s">
         <v>491</v>
       </c>
-      <c r="B196" s="131"/>
-      <c r="C196" s="131"/>
-      <c r="D196" s="131"/>
-      <c r="E196" s="131"/>
-      <c r="F196" s="131"/>
-      <c r="G196" s="131"/>
-      <c r="H196" s="131"/>
-      <c r="I196" s="131"/>
-      <c r="J196" s="131"/>
-      <c r="K196" s="131"/>
-      <c r="L196" s="131"/>
-      <c r="M196" s="131"/>
-      <c r="N196" s="131"/>
-      <c r="O196" s="131"/>
-      <c r="P196" s="131"/>
-      <c r="Q196" s="131"/>
-      <c r="R196" s="131"/>
+      <c r="B196" s="104"/>
+      <c r="C196" s="104"/>
+      <c r="D196" s="104"/>
+      <c r="E196" s="104"/>
+      <c r="F196" s="104"/>
+      <c r="G196" s="104"/>
+      <c r="H196" s="104"/>
+      <c r="I196" s="104"/>
+      <c r="J196" s="104"/>
+      <c r="K196" s="104"/>
+      <c r="L196" s="104"/>
+      <c r="M196" s="104"/>
+      <c r="N196" s="104"/>
+      <c r="O196" s="104"/>
+      <c r="P196" s="104"/>
+      <c r="Q196" s="104"/>
+      <c r="R196" s="104"/>
       <c r="S196" s="91"/>
       <c r="T196" s="91"/>
       <c r="U196" s="91"/>
@@ -11867,7 +11888,7 @@
       </c>
       <c r="D198" s="81" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-01-25</v>
+        <v>2023-08-11</v>
       </c>
       <c r="E198" s="81"/>
       <c r="F198" s="81" t="str">
@@ -11922,26 +11943,26 @@
       </c>
     </row>
     <row r="200" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A200" s="130" t="s">
+      <c r="A200" s="103" t="s">
         <v>491</v>
       </c>
-      <c r="B200" s="131"/>
-      <c r="C200" s="131"/>
-      <c r="D200" s="131"/>
-      <c r="E200" s="131"/>
-      <c r="F200" s="131"/>
-      <c r="G200" s="131"/>
-      <c r="H200" s="131"/>
-      <c r="I200" s="131"/>
-      <c r="J200" s="131"/>
-      <c r="K200" s="131"/>
-      <c r="L200" s="131"/>
-      <c r="M200" s="131"/>
-      <c r="N200" s="131"/>
-      <c r="O200" s="131"/>
-      <c r="P200" s="131"/>
-      <c r="Q200" s="131"/>
-      <c r="R200" s="131"/>
+      <c r="B200" s="104"/>
+      <c r="C200" s="104"/>
+      <c r="D200" s="104"/>
+      <c r="E200" s="104"/>
+      <c r="F200" s="104"/>
+      <c r="G200" s="104"/>
+      <c r="H200" s="104"/>
+      <c r="I200" s="104"/>
+      <c r="J200" s="104"/>
+      <c r="K200" s="104"/>
+      <c r="L200" s="104"/>
+      <c r="M200" s="104"/>
+      <c r="N200" s="104"/>
+      <c r="O200" s="104"/>
+      <c r="P200" s="104"/>
+      <c r="Q200" s="104"/>
+      <c r="R200" s="104"/>
       <c r="S200" s="92"/>
       <c r="T200" s="92"/>
       <c r="U200" s="92"/>
@@ -12041,7 +12062,7 @@
       </c>
       <c r="D202" s="81" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-01-25</v>
+        <v>2023-08-11</v>
       </c>
       <c r="E202" s="81"/>
       <c r="F202" s="81" t="str">
@@ -12108,7 +12129,7 @@
       </c>
       <c r="D203" s="80" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-03-11</v>
+        <v>2023-09-25</v>
       </c>
       <c r="E203" s="79"/>
       <c r="F203" s="80">
@@ -12157,7 +12178,10 @@
       </c>
       <c r="Z203" s="79"/>
       <c r="AU203" t="s">
-        <v>528</v>
+        <v>529</v>
+      </c>
+      <c r="AV203" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="204" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -12170,7 +12194,7 @@
       </c>
       <c r="D204" s="84" t="str">
         <f ca="1">TEXT(TODAY()+70,"YYYY-MM-DD")</f>
-        <v>2023-04-05</v>
+        <v>2023-10-20</v>
       </c>
       <c r="E204" s="84"/>
       <c r="F204" s="84">
@@ -12219,7 +12243,10 @@
       </c>
       <c r="Z204" s="84"/>
       <c r="AU204" t="s">
-        <v>529</v>
+        <v>531</v>
+      </c>
+      <c r="AV204" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="206" spans="1:47" x14ac:dyDescent="0.35">
@@ -12289,7 +12316,7 @@
       <c r="I208" s="72"/>
       <c r="J208" s="73">
         <f ca="1">TODAY()</f>
-        <v>44951</v>
+        <v>45149</v>
       </c>
       <c r="K208" s="73">
         <v>234</v>
@@ -12365,7 +12392,7 @@
       <c r="I212" s="72"/>
       <c r="J212" s="73">
         <f ca="1">TODAY()</f>
-        <v>44951</v>
+        <v>45149</v>
       </c>
       <c r="K212" s="73">
         <v>234</v>
@@ -12375,76 +12402,76 @@
       </c>
     </row>
     <row r="214" spans="1:26" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A214" s="107" t="s">
+      <c r="A214" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="B214" s="108"/>
-      <c r="C214" s="108"/>
-      <c r="D214" s="108"/>
-      <c r="E214" s="108"/>
-      <c r="F214" s="108"/>
-      <c r="G214" s="108"/>
-      <c r="H214" s="108"/>
-      <c r="I214" s="108"/>
-      <c r="J214" s="108"/>
-      <c r="K214" s="108"/>
-      <c r="L214" s="108"/>
+      <c r="B214" s="106"/>
+      <c r="C214" s="106"/>
+      <c r="D214" s="106"/>
+      <c r="E214" s="106"/>
+      <c r="F214" s="106"/>
+      <c r="G214" s="106"/>
+      <c r="H214" s="106"/>
+      <c r="I214" s="106"/>
+      <c r="J214" s="106"/>
+      <c r="K214" s="106"/>
+      <c r="L214" s="106"/>
     </row>
     <row r="215" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A215" s="134" t="s">
+      <c r="A215" s="107" t="s">
         <v>131</v>
       </c>
-      <c r="B215" s="134" t="s">
+      <c r="B215" s="107" t="s">
         <v>353</v>
       </c>
-      <c r="C215" s="116" t="s">
+      <c r="C215" s="121" t="s">
         <v>354</v>
       </c>
-      <c r="D215" s="119" t="s">
+      <c r="D215" s="124" t="s">
         <v>355</v>
       </c>
-      <c r="E215" s="122" t="s">
+      <c r="E215" s="127" t="s">
         <v>339</v>
       </c>
-      <c r="F215" s="122"/>
-      <c r="G215" s="122"/>
-      <c r="H215" s="122"/>
-      <c r="I215" s="123" t="s">
+      <c r="F215" s="127"/>
+      <c r="G215" s="127"/>
+      <c r="H215" s="127"/>
+      <c r="I215" s="128" t="s">
         <v>356</v>
       </c>
-      <c r="J215" s="123"/>
-      <c r="K215" s="123"/>
-      <c r="L215" s="123"/>
+      <c r="J215" s="128"/>
+      <c r="K215" s="128"/>
+      <c r="L215" s="128"/>
     </row>
     <row r="216" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A216" s="135"/>
-      <c r="B216" s="135"/>
-      <c r="C216" s="117"/>
-      <c r="D216" s="120"/>
-      <c r="E216" s="105" t="s">
+      <c r="A216" s="108"/>
+      <c r="B216" s="108"/>
+      <c r="C216" s="122"/>
+      <c r="D216" s="125"/>
+      <c r="E216" s="110" t="s">
         <v>357</v>
       </c>
-      <c r="F216" s="106"/>
-      <c r="G216" s="103" t="s">
+      <c r="F216" s="111"/>
+      <c r="G216" s="112" t="s">
         <v>343</v>
       </c>
-      <c r="H216" s="104"/>
-      <c r="I216" s="105" t="s">
+      <c r="H216" s="113"/>
+      <c r="I216" s="110" t="s">
         <v>357</v>
       </c>
-      <c r="J216" s="106"/>
-      <c r="K216" s="103" t="s">
+      <c r="J216" s="111"/>
+      <c r="K216" s="112" t="s">
         <v>343</v>
       </c>
-      <c r="L216" s="104"/>
+      <c r="L216" s="113"/>
     </row>
     <row r="217" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A217" s="136"/>
-      <c r="B217" s="136" t="s">
+      <c r="A217" s="109"/>
+      <c r="B217" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="C217" s="118"/>
-      <c r="D217" s="121"/>
+      <c r="C217" s="123"/>
+      <c r="D217" s="126"/>
       <c r="E217" s="64" t="s">
         <v>358</v>
       </c>
@@ -12519,61 +12546,61 @@
       </c>
     </row>
     <row r="220" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A220" s="107" t="s">
+      <c r="A220" s="105" t="s">
         <v>363</v>
       </c>
-      <c r="B220" s="108"/>
-      <c r="C220" s="108"/>
-      <c r="D220" s="108"/>
-      <c r="E220" s="108"/>
-      <c r="F220" s="108"/>
-      <c r="G220" s="108"/>
-      <c r="H220" s="108"/>
-      <c r="I220" s="108"/>
-      <c r="J220" s="108"/>
+      <c r="B220" s="106"/>
+      <c r="C220" s="106"/>
+      <c r="D220" s="106"/>
+      <c r="E220" s="106"/>
+      <c r="F220" s="106"/>
+      <c r="G220" s="106"/>
+      <c r="H220" s="106"/>
+      <c r="I220" s="106"/>
+      <c r="J220" s="106"/>
     </row>
     <row r="221" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A221" s="99"/>
       <c r="B221" s="100"/>
-      <c r="C221" s="109" t="s">
+      <c r="C221" s="114" t="s">
         <v>339</v>
       </c>
-      <c r="D221" s="109"/>
-      <c r="E221" s="109"/>
-      <c r="F221" s="109"/>
-      <c r="G221" s="109"/>
-      <c r="H221" s="109"/>
-      <c r="I221" s="109"/>
-      <c r="J221" s="109"/>
-      <c r="K221" s="109"/>
+      <c r="D221" s="114"/>
+      <c r="E221" s="114"/>
+      <c r="F221" s="114"/>
+      <c r="G221" s="114"/>
+      <c r="H221" s="114"/>
+      <c r="I221" s="114"/>
+      <c r="J221" s="114"/>
+      <c r="K221" s="114"/>
       <c r="Z221" s="69"/>
     </row>
     <row r="222" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A222" s="110" t="s">
+      <c r="A222" s="115" t="s">
         <v>340</v>
       </c>
-      <c r="B222" s="110" t="s">
+      <c r="B222" s="115" t="s">
         <v>341</v>
       </c>
-      <c r="C222" s="105" t="s">
+      <c r="C222" s="110" t="s">
         <v>342</v>
       </c>
-      <c r="D222" s="112"/>
-      <c r="E222" s="112"/>
-      <c r="F222" s="106"/>
-      <c r="G222" s="103" t="s">
+      <c r="D222" s="117"/>
+      <c r="E222" s="117"/>
+      <c r="F222" s="111"/>
+      <c r="G222" s="112" t="s">
         <v>343</v>
       </c>
-      <c r="H222" s="113"/>
-      <c r="I222" s="113"/>
-      <c r="J222" s="104"/>
-      <c r="K222" s="114" t="s">
+      <c r="H222" s="118"/>
+      <c r="I222" s="118"/>
+      <c r="J222" s="113"/>
+      <c r="K222" s="119" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="223" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A223" s="111"/>
-      <c r="B223" s="111"/>
+      <c r="A223" s="116"/>
+      <c r="B223" s="116"/>
       <c r="C223" s="64" t="s">
         <v>346</v>
       </c>
@@ -12598,7 +12625,7 @@
       <c r="J223" s="65" t="s">
         <v>349</v>
       </c>
-      <c r="K223" s="115"/>
+      <c r="K223" s="120"/>
     </row>
     <row r="224" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A224" s="55" t="s">
@@ -12709,7 +12736,7 @@
       <c r="I228" s="72"/>
       <c r="J228" s="73">
         <f ca="1">TODAY()</f>
-        <v>44951</v>
+        <v>45149</v>
       </c>
       <c r="K228" s="73">
         <v>234</v>
@@ -12785,7 +12812,7 @@
       <c r="I232" s="72"/>
       <c r="J232" s="73">
         <f ca="1">TODAY()</f>
-        <v>44951</v>
+        <v>45149</v>
       </c>
       <c r="K232" s="73">
         <v>234</v>
@@ -12795,76 +12822,76 @@
       </c>
     </row>
     <row r="234" spans="1:12" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A234" s="107" t="s">
+      <c r="A234" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="B234" s="108"/>
-      <c r="C234" s="108"/>
-      <c r="D234" s="108"/>
-      <c r="E234" s="108"/>
-      <c r="F234" s="108"/>
-      <c r="G234" s="108"/>
-      <c r="H234" s="108"/>
-      <c r="I234" s="108"/>
-      <c r="J234" s="108"/>
-      <c r="K234" s="108"/>
-      <c r="L234" s="108"/>
+      <c r="B234" s="106"/>
+      <c r="C234" s="106"/>
+      <c r="D234" s="106"/>
+      <c r="E234" s="106"/>
+      <c r="F234" s="106"/>
+      <c r="G234" s="106"/>
+      <c r="H234" s="106"/>
+      <c r="I234" s="106"/>
+      <c r="J234" s="106"/>
+      <c r="K234" s="106"/>
+      <c r="L234" s="106"/>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A235" s="134" t="s">
+      <c r="A235" s="107" t="s">
         <v>131</v>
       </c>
-      <c r="B235" s="134" t="s">
+      <c r="B235" s="107" t="s">
         <v>353</v>
       </c>
-      <c r="C235" s="116" t="s">
+      <c r="C235" s="121" t="s">
         <v>354</v>
       </c>
-      <c r="D235" s="119" t="s">
+      <c r="D235" s="124" t="s">
         <v>355</v>
       </c>
-      <c r="E235" s="122" t="s">
+      <c r="E235" s="127" t="s">
         <v>339</v>
       </c>
-      <c r="F235" s="122"/>
-      <c r="G235" s="122"/>
-      <c r="H235" s="122"/>
-      <c r="I235" s="123" t="s">
+      <c r="F235" s="127"/>
+      <c r="G235" s="127"/>
+      <c r="H235" s="127"/>
+      <c r="I235" s="128" t="s">
         <v>356</v>
       </c>
-      <c r="J235" s="123"/>
-      <c r="K235" s="123"/>
-      <c r="L235" s="123"/>
+      <c r="J235" s="128"/>
+      <c r="K235" s="128"/>
+      <c r="L235" s="128"/>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A236" s="135"/>
-      <c r="B236" s="135"/>
-      <c r="C236" s="117"/>
-      <c r="D236" s="120"/>
-      <c r="E236" s="105" t="s">
+      <c r="A236" s="108"/>
+      <c r="B236" s="108"/>
+      <c r="C236" s="122"/>
+      <c r="D236" s="125"/>
+      <c r="E236" s="110" t="s">
         <v>357</v>
       </c>
-      <c r="F236" s="106"/>
-      <c r="G236" s="103" t="s">
+      <c r="F236" s="111"/>
+      <c r="G236" s="112" t="s">
         <v>343</v>
       </c>
-      <c r="H236" s="104"/>
-      <c r="I236" s="105" t="s">
+      <c r="H236" s="113"/>
+      <c r="I236" s="110" t="s">
         <v>357</v>
       </c>
-      <c r="J236" s="106"/>
-      <c r="K236" s="103" t="s">
+      <c r="J236" s="111"/>
+      <c r="K236" s="112" t="s">
         <v>343</v>
       </c>
-      <c r="L236" s="104"/>
+      <c r="L236" s="113"/>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A237" s="136"/>
-      <c r="B237" s="136" t="s">
+      <c r="A237" s="109"/>
+      <c r="B237" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="C237" s="118"/>
-      <c r="D237" s="121"/>
+      <c r="C237" s="123"/>
+      <c r="D237" s="126"/>
       <c r="E237" s="64" t="s">
         <v>358</v>
       </c>
@@ -12939,61 +12966,61 @@
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A240" s="107" t="s">
+      <c r="A240" s="105" t="s">
         <v>363</v>
       </c>
-      <c r="B240" s="108"/>
-      <c r="C240" s="108"/>
-      <c r="D240" s="108"/>
-      <c r="E240" s="108"/>
-      <c r="F240" s="108"/>
-      <c r="G240" s="108"/>
-      <c r="H240" s="108"/>
-      <c r="I240" s="108"/>
-      <c r="J240" s="108"/>
+      <c r="B240" s="106"/>
+      <c r="C240" s="106"/>
+      <c r="D240" s="106"/>
+      <c r="E240" s="106"/>
+      <c r="F240" s="106"/>
+      <c r="G240" s="106"/>
+      <c r="H240" s="106"/>
+      <c r="I240" s="106"/>
+      <c r="J240" s="106"/>
     </row>
     <row r="241" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A241" s="101"/>
       <c r="B241" s="102"/>
-      <c r="C241" s="109" t="s">
+      <c r="C241" s="114" t="s">
         <v>339</v>
       </c>
-      <c r="D241" s="109"/>
-      <c r="E241" s="109"/>
-      <c r="F241" s="109"/>
-      <c r="G241" s="109"/>
-      <c r="H241" s="109"/>
-      <c r="I241" s="109"/>
-      <c r="J241" s="109"/>
-      <c r="K241" s="109"/>
+      <c r="D241" s="114"/>
+      <c r="E241" s="114"/>
+      <c r="F241" s="114"/>
+      <c r="G241" s="114"/>
+      <c r="H241" s="114"/>
+      <c r="I241" s="114"/>
+      <c r="J241" s="114"/>
+      <c r="K241" s="114"/>
       <c r="Z241" s="69"/>
     </row>
     <row r="242" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A242" s="110" t="s">
+      <c r="A242" s="115" t="s">
         <v>340</v>
       </c>
-      <c r="B242" s="110" t="s">
+      <c r="B242" s="115" t="s">
         <v>341</v>
       </c>
-      <c r="C242" s="105" t="s">
+      <c r="C242" s="110" t="s">
         <v>342</v>
       </c>
-      <c r="D242" s="112"/>
-      <c r="E242" s="112"/>
-      <c r="F242" s="106"/>
-      <c r="G242" s="103" t="s">
+      <c r="D242" s="117"/>
+      <c r="E242" s="117"/>
+      <c r="F242" s="111"/>
+      <c r="G242" s="112" t="s">
         <v>343</v>
       </c>
-      <c r="H242" s="113"/>
-      <c r="I242" s="113"/>
-      <c r="J242" s="104"/>
-      <c r="K242" s="114" t="s">
+      <c r="H242" s="118"/>
+      <c r="I242" s="118"/>
+      <c r="J242" s="113"/>
+      <c r="K242" s="119" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="243" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A243" s="111"/>
-      <c r="B243" s="111"/>
+      <c r="A243" s="116"/>
+      <c r="B243" s="116"/>
       <c r="C243" s="64" t="s">
         <v>346</v>
       </c>
@@ -13018,7 +13045,7 @@
       <c r="J243" s="65" t="s">
         <v>349</v>
       </c>
-      <c r="K243" s="115"/>
+      <c r="K243" s="120"/>
     </row>
     <row r="244" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A244" s="55" t="s">
@@ -13087,7 +13114,7 @@
     <row r="248" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A248" s="74" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-01-25</v>
+        <v>2023-08-11</v>
       </c>
       <c r="B248" s="93" t="s">
         <v>511</v>
@@ -13102,7 +13129,7 @@
     <row r="249" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A249" s="74" t="str">
         <f t="shared" ref="A249:A263" ca="1" si="0">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-01-25</v>
+        <v>2023-08-11</v>
       </c>
       <c r="B249" s="93" t="s">
         <v>512</v>
@@ -13117,7 +13144,7 @@
     <row r="250" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A250" s="74" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-01-25</v>
+        <v>2023-08-11</v>
       </c>
       <c r="B250" s="93" t="s">
         <v>437</v>
@@ -13132,7 +13159,7 @@
     <row r="251" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A251" s="74" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-01-25</v>
+        <v>2023-08-11</v>
       </c>
       <c r="B251" s="93" t="s">
         <v>439</v>
@@ -13147,7 +13174,7 @@
     <row r="252" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A252" s="74" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-01-25</v>
+        <v>2023-08-11</v>
       </c>
       <c r="B252" s="93" t="s">
         <v>441</v>
@@ -13162,7 +13189,7 @@
     <row r="253" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A253" s="74" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-01-25</v>
+        <v>2023-08-11</v>
       </c>
       <c r="B253" s="93" t="s">
         <v>440</v>
@@ -13177,7 +13204,7 @@
     <row r="254" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A254" s="74" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-01-25</v>
+        <v>2023-08-11</v>
       </c>
       <c r="B254" s="93" t="s">
         <v>442</v>
@@ -13192,7 +13219,7 @@
     <row r="255" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A255" s="74" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-01-25</v>
+        <v>2023-08-11</v>
       </c>
       <c r="B255" s="93" t="s">
         <v>443</v>
@@ -13207,7 +13234,7 @@
     <row r="256" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A256" s="74" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-01-25</v>
+        <v>2023-08-11</v>
       </c>
       <c r="B256" s="93" t="s">
         <v>442</v>
@@ -13222,7 +13249,7 @@
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="74" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-01-25</v>
+        <v>2023-08-11</v>
       </c>
       <c r="B257" s="93" t="s">
         <v>513</v>
@@ -13237,7 +13264,7 @@
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" s="74" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-01-25</v>
+        <v>2023-08-11</v>
       </c>
       <c r="B258" s="93" t="s">
         <v>514</v>
@@ -13252,7 +13279,7 @@
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" s="74" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-01-25</v>
+        <v>2023-08-11</v>
       </c>
       <c r="B259" s="93" t="s">
         <v>443</v>
@@ -13267,7 +13294,7 @@
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="74" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-01-25</v>
+        <v>2023-08-11</v>
       </c>
       <c r="B260" s="93" t="s">
         <v>442</v>
@@ -13282,7 +13309,7 @@
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" s="74" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-01-25</v>
+        <v>2023-08-11</v>
       </c>
       <c r="B261" s="93" t="s">
         <v>385</v>
@@ -13297,7 +13324,7 @@
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" s="74" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-01-25</v>
+        <v>2023-08-11</v>
       </c>
       <c r="B262" s="93" t="s">
         <v>515</v>
@@ -13312,7 +13339,7 @@
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="74" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-01-25</v>
+        <v>2023-08-11</v>
       </c>
       <c r="B263" s="93" t="s">
         <v>443</v>
@@ -13326,6 +13353,94 @@
     </row>
   </sheetData>
   <mergeCells count="112">
+    <mergeCell ref="G216:H216"/>
+    <mergeCell ref="I216:J216"/>
+    <mergeCell ref="K216:L216"/>
+    <mergeCell ref="A220:J220"/>
+    <mergeCell ref="C221:K221"/>
+    <mergeCell ref="A240:J240"/>
+    <mergeCell ref="C241:K241"/>
+    <mergeCell ref="A242:A243"/>
+    <mergeCell ref="B242:B243"/>
+    <mergeCell ref="C242:F242"/>
+    <mergeCell ref="G242:J242"/>
+    <mergeCell ref="K242:K243"/>
+    <mergeCell ref="C222:F222"/>
+    <mergeCell ref="G222:J222"/>
+    <mergeCell ref="K222:K223"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="C235:C237"/>
+    <mergeCell ref="D235:D237"/>
+    <mergeCell ref="E235:H235"/>
+    <mergeCell ref="I235:L235"/>
+    <mergeCell ref="E236:F236"/>
+    <mergeCell ref="G236:H236"/>
+    <mergeCell ref="I236:J236"/>
+    <mergeCell ref="K236:L236"/>
+    <mergeCell ref="AG84:AL84"/>
+    <mergeCell ref="T84:V84"/>
+    <mergeCell ref="W84:X84"/>
+    <mergeCell ref="Z84:AF84"/>
+    <mergeCell ref="A189:R189"/>
+    <mergeCell ref="A175:R175"/>
+    <mergeCell ref="A161:R161"/>
+    <mergeCell ref="A148:R148"/>
+    <mergeCell ref="E100:H100"/>
+    <mergeCell ref="A120:J120"/>
+    <mergeCell ref="C121:K121"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="T116:V116"/>
+    <mergeCell ref="W116:X116"/>
+    <mergeCell ref="Z116:AF116"/>
+    <mergeCell ref="AG116:AL116"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="G107:J107"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="A99:L99"/>
+    <mergeCell ref="L95:L96"/>
+    <mergeCell ref="A93:J93"/>
+    <mergeCell ref="C94:K94"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="A77:K77"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="G95:J95"/>
+    <mergeCell ref="C107:F107"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="I100:L100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A23:P23"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A105:J105"/>
+    <mergeCell ref="A168:R168"/>
+    <mergeCell ref="A154:R154"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="C122:F122"/>
+    <mergeCell ref="G122:J122"/>
+    <mergeCell ref="K122:K123"/>
+    <mergeCell ref="L122:L123"/>
+    <mergeCell ref="A126:L126"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="D127:D129"/>
+    <mergeCell ref="E127:H127"/>
+    <mergeCell ref="I127:L127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="C106:K106"/>
+    <mergeCell ref="A107:A108"/>
     <mergeCell ref="A182:R182"/>
     <mergeCell ref="A234:L234"/>
     <mergeCell ref="A235:A237"/>
@@ -13350,94 +13465,6 @@
     <mergeCell ref="E215:H215"/>
     <mergeCell ref="I215:L215"/>
     <mergeCell ref="E216:F216"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A23:P23"/>
-    <mergeCell ref="A69:I69"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A105:J105"/>
-    <mergeCell ref="A168:R168"/>
-    <mergeCell ref="A154:R154"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="C122:F122"/>
-    <mergeCell ref="G122:J122"/>
-    <mergeCell ref="K122:K123"/>
-    <mergeCell ref="L122:L123"/>
-    <mergeCell ref="A126:L126"/>
-    <mergeCell ref="A127:A129"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="C127:C129"/>
-    <mergeCell ref="D127:D129"/>
-    <mergeCell ref="E127:H127"/>
-    <mergeCell ref="I127:L127"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="C106:K106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A77:K77"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="C95:F95"/>
-    <mergeCell ref="G95:J95"/>
-    <mergeCell ref="C107:F107"/>
-    <mergeCell ref="K95:K96"/>
-    <mergeCell ref="I100:L100"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="K101:L101"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="AG84:AL84"/>
-    <mergeCell ref="T84:V84"/>
-    <mergeCell ref="W84:X84"/>
-    <mergeCell ref="Z84:AF84"/>
-    <mergeCell ref="A189:R189"/>
-    <mergeCell ref="A175:R175"/>
-    <mergeCell ref="A161:R161"/>
-    <mergeCell ref="A148:R148"/>
-    <mergeCell ref="E100:H100"/>
-    <mergeCell ref="A120:J120"/>
-    <mergeCell ref="C121:K121"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="T116:V116"/>
-    <mergeCell ref="W116:X116"/>
-    <mergeCell ref="Z116:AF116"/>
-    <mergeCell ref="AG116:AL116"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="G107:J107"/>
-    <mergeCell ref="K107:K108"/>
-    <mergeCell ref="A99:L99"/>
-    <mergeCell ref="L95:L96"/>
-    <mergeCell ref="A93:J93"/>
-    <mergeCell ref="C94:K94"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="G216:H216"/>
-    <mergeCell ref="I216:J216"/>
-    <mergeCell ref="K216:L216"/>
-    <mergeCell ref="A220:J220"/>
-    <mergeCell ref="C221:K221"/>
-    <mergeCell ref="A240:J240"/>
-    <mergeCell ref="C241:K241"/>
-    <mergeCell ref="A242:A243"/>
-    <mergeCell ref="B242:B243"/>
-    <mergeCell ref="C242:F242"/>
-    <mergeCell ref="G242:J242"/>
-    <mergeCell ref="K242:K243"/>
-    <mergeCell ref="C222:F222"/>
-    <mergeCell ref="G222:J222"/>
-    <mergeCell ref="K222:K223"/>
-    <mergeCell ref="B222:B223"/>
-    <mergeCell ref="C235:C237"/>
-    <mergeCell ref="D235:D237"/>
-    <mergeCell ref="E235:H235"/>
-    <mergeCell ref="I235:L235"/>
-    <mergeCell ref="E236:F236"/>
-    <mergeCell ref="G236:H236"/>
-    <mergeCell ref="I236:J236"/>
-    <mergeCell ref="K236:L236"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14 C58 MFR184:MFR187 MZJ170:MZJ173 MZJ177:MZJ180 OCX202:OCX204 OMT202:OMT204 OWP202:OWP204 PGL202:PGL204 PQH202:PQH204 QAD202:QAD204 QJZ202:QJZ204 QTV202:QTV204 RDR202:RDR204 RNN202:RNN204 RXJ202:RXJ204 SHF202:SHF204 SRB202:SRB204 TAX202:TAX204 TKT202:TKT204 TUP202:TUP204 UEL202:UEL204 UOH202:UOH204 UYD202:UYD204 VHZ202:VHZ204 VRV202:VRV204 WBR202:WBR204 WLN202:WLN204 WVJ202:WVJ204 IX202:IX204 ST202:ST204 ACP202:ACP204 AML202:AML204 AWH202:AWH204 BGD202:BGD204 BPZ202:BPZ204 BZV202:BZV204 CJR202:CJR204 CTN202:CTN204 DDJ202:DDJ204 DNF202:DNF204 DXB202:DXB204 EGX202:EGX204 EQT202:EQT204 FAP202:FAP204 LCD202:LCD204 FKL202:FKL204 FUH202:FUH204 GED202:GED204 GNZ202:GNZ204 GXV202:GXV204 HHR202:HHR204 HRN202:HRN204 IBJ202:IBJ204 ILF202:ILF204 IVB202:IVB204 JEX202:JEX204 JOT202:JOT204 JYP202:JYP204 KIL202:KIL204 KSH202:KSH204 LLZ202:LLZ204 LVV202:LVV204 MFR202:MFR204 MPN202:MPN204 MZJ202:MZJ204 NJF202:NJF204 MPN191:MPN194 MZJ150:MZJ152 MPN150:MPN152 MFR150:MFR152 LVV150:LVV152 LLZ150:LLZ152 KSH150:KSH152 KIL150:KIL152 JYP150:JYP152 JOT150:JOT152 JEX150:JEX152 IVB150:IVB152 ILF150:ILF152 IBJ150:IBJ152 HRN150:HRN152 HHR150:HHR152 GXV150:GXV152 GNZ150:GNZ152 GED150:GED152 FUH150:FUH152 FKL150:FKL152 LCD150:LCD152 FAP150:FAP152 EQT150:EQT152 EGX150:EGX152 DXB150:DXB152 DNF150:DNF152 DDJ150:DDJ152 CTN150:CTN152 CJR150:CJR152 BZV150:BZV152 BPZ150:BPZ152 BGD150:BGD152 AWH150:AWH152 AML150:AML152 ACP150:ACP152 ST150:ST152 IX150:IX152 WVJ150:WVJ152 WLN150:WLN152 WBR150:WBR152 VRV150:VRV152 VHZ150:VHZ152 UYD150:UYD152 UOH150:UOH152 UEL150:UEL152 TUP150:TUP152 TKT150:TKT152 TAX150:TAX152 SRB150:SRB152 SHF150:SHF152 RXJ150:RXJ152 RNN150:RNN152 RDR150:RDR152 QTV150:QTV152 QJZ150:QJZ152 QAD150:QAD152 PQH150:PQH152 PGL150:PGL152 OWP150:OWP152 OMT150:OMT152 OCX150:OCX152 NTB150:NTB152 NJF150:NJF152 OCX198 MFR156:MFR159 MPN163:MPN166 NTB198 NJF198 MZJ198 MPN198 MFR198 LVV198 LLZ198 KSH198 KIL198 JYP198 JOT198 JEX198 IVB198 ILF198 IBJ198 HRN198 HHR198 GXV198 GNZ198 GED198 FUH198 FKL198 LCD198 FAP198 EQT198 EGX198 DXB198 DNF198 DDJ198 CTN198 CJR198 BZV198 BPZ198 BGD198 AWH198 AML198 ACP198 ST198 IX198 WVJ198 WLN198 WBR198 VRV198 VHZ198 UYD198 UOH198 UEL198 TUP198 TKT198 TAX198 SRB198 SHF198 RXJ198 RNN198 RDR198 QTV198 QJZ198 QAD198 PQH198 PGL198 OWP198 OMT198 LVV156:LVV159 LLZ156:LLZ159 KSH156:KSH159 KIL156:KIL159 JYP156:JYP159 JOT156:JOT159 JEX156:JEX159 IVB156:IVB159 ILF156:ILF159 IBJ156:IBJ159 HRN156:HRN159 HHR156:HHR159 GXV156:GXV159 GNZ156:GNZ159 GED156:GED159 FUH156:FUH159 FKL156:FKL159 LCD156:LCD159 FAP156:FAP159 EQT156:EQT159 EGX156:EGX159 DXB156:DXB159 DNF156:DNF159 DDJ156:DDJ159 CTN156:CTN159 CJR156:CJR159 BZV156:BZV159 BPZ156:BPZ159 BGD156:BGD159 AWH156:AWH159 AML156:AML159 ACP156:ACP159 ST156:ST159 IX156:IX159 WVJ156:WVJ159 WLN156:WLN159 WBR156:WBR159 VRV156:VRV159 VHZ156:VHZ159 UYD156:UYD159 UOH156:UOH159 UEL156:UEL159 TUP156:TUP159 TKT156:TKT159 TAX156:TAX159 SRB156:SRB159 SHF156:SHF159 RXJ156:RXJ159 RNN156:RNN159 RDR156:RDR159 QTV156:QTV159 QJZ156:QJZ159 QAD156:QAD159 PQH156:PQH159 PGL156:PGL159 OWP156:OWP159 OMT156:OMT159 OCX156:OCX159 NTB156:NTB159 NJF156:NJF159 MZJ156:MZJ159 MPN156:MPN159 MFR163:MFR166 LVV163:LVV166 LLZ163:LLZ166 KSH163:KSH166 KIL163:KIL166 JYP163:JYP166 JOT163:JOT166 JEX163:JEX166 IVB163:IVB166 ILF163:ILF166 IBJ163:IBJ166 HRN163:HRN166 HHR163:HHR166 GXV163:GXV166 GNZ163:GNZ166 GED163:GED166 FUH163:FUH166 FKL163:FKL166 LCD163:LCD166 FAP163:FAP166 EQT163:EQT166 EGX163:EGX166 DXB163:DXB166 DNF163:DNF166 DDJ163:DDJ166 CTN163:CTN166 CJR163:CJR166 BZV163:BZV166 BPZ163:BPZ166 BGD163:BGD166 AWH163:AWH166 AML163:AML166 ACP163:ACP166 ST163:ST166 IX163:IX166 WVJ163:WVJ166 WLN163:WLN166 WBR163:WBR166 VRV163:VRV166 VHZ163:VHZ166 UYD163:UYD166 UOH163:UOH166 UEL163:UEL166 TUP163:TUP166 TKT163:TKT166 TAX163:TAX166 SRB163:SRB166 SHF163:SHF166 RXJ163:RXJ166 RNN163:RNN166 RDR163:RDR166 QTV163:QTV166 QJZ163:QJZ166 QAD163:QAD166 PQH163:PQH166 PGL163:PGL166 OWP163:OWP166 OMT163:OMT166 OCX163:OCX166 NTB163:NTB166 NJF163:NJF166 MZJ163:MZJ166 NJF170:NJF173 NTB170:NTB173 OCX170:OCX173 OMT170:OMT173 OWP170:OWP173 PGL170:PGL173 PQH170:PQH173 QAD170:QAD173 QJZ170:QJZ173 QTV170:QTV173 RDR170:RDR173 RNN170:RNN173 RXJ170:RXJ173 SHF170:SHF173 SRB170:SRB173 TAX170:TAX173 TKT170:TKT173 TUP170:TUP173 UEL170:UEL173 UOH170:UOH173 UYD170:UYD173 VHZ170:VHZ173 VRV170:VRV173 WBR170:WBR173 WLN170:WLN173 WVJ170:WVJ173 IX170:IX173 ST170:ST173 ACP170:ACP173 AML170:AML173 AWH170:AWH173 BGD170:BGD173 BPZ170:BPZ173 BZV170:BZV173 CJR170:CJR173 CTN170:CTN173 DDJ170:DDJ173 DNF170:DNF173 DXB170:DXB173 EGX170:EGX173 EQT170:EQT173 FAP170:FAP173 LCD170:LCD173 FKL170:FKL173 FUH170:FUH173 GED170:GED173 GNZ170:GNZ173 GXV170:GXV173 HHR170:HHR173 HRN170:HRN173 IBJ170:IBJ173 ILF170:ILF173 IVB170:IVB173 JEX170:JEX173 JOT170:JOT173 JYP170:JYP173 KIL170:KIL173 KSH170:KSH173 LLZ170:LLZ173 LVV170:LVV173 MFR170:MFR173 MPN170:MPN173 MPN177:MPN180 MFR177:MFR180 LVV177:LVV180 LLZ177:LLZ180 KSH177:KSH180 KIL177:KIL180 JYP177:JYP180 JOT177:JOT180 JEX177:JEX180 IVB177:IVB180 ILF177:ILF180 IBJ177:IBJ180 HRN177:HRN180 HHR177:HHR180 GXV177:GXV180 GNZ177:GNZ180 GED177:GED180 FUH177:FUH180 FKL177:FKL180 LCD177:LCD180 FAP177:FAP180 EQT177:EQT180 EGX177:EGX180 DXB177:DXB180 DNF177:DNF180 DDJ177:DDJ180 CTN177:CTN180 CJR177:CJR180 BZV177:BZV180 BPZ177:BPZ180 BGD177:BGD180 AWH177:AWH180 AML177:AML180 ACP177:ACP180 ST177:ST180 IX177:IX180 WVJ177:WVJ180 WLN177:WLN180 WBR177:WBR180 VRV177:VRV180 VHZ177:VHZ180 UYD177:UYD180 UOH177:UOH180 UEL177:UEL180 TUP177:TUP180 TKT177:TKT180 TAX177:TAX180 SRB177:SRB180 SHF177:SHF180 RXJ177:RXJ180 RNN177:RNN180 RDR177:RDR180 QTV177:QTV180 QJZ177:QJZ180 QAD177:QAD180 PQH177:PQH180 PGL177:PGL180 OWP177:OWP180 OMT177:OMT180 OCX177:OCX180 NTB177:NTB180 NJF177:NJF180 MPN184:MPN187 MZJ184:MZJ187 NJF184:NJF187 NTB184:NTB187 OCX184:OCX187 OMT184:OMT187 OWP184:OWP187 PGL184:PGL187 PQH184:PQH187 QAD184:QAD187 QJZ184:QJZ187 QTV184:QTV187 RDR184:RDR187 RNN184:RNN187 RXJ184:RXJ187 SHF184:SHF187 SRB184:SRB187 TAX184:TAX187 TKT184:TKT187 TUP184:TUP187 UEL184:UEL187 UOH184:UOH187 UYD184:UYD187 VHZ184:VHZ187 VRV184:VRV187 WBR184:WBR187 WLN184:WLN187 WVJ184:WVJ187 IX184:IX187 ST184:ST187 ACP184:ACP187 AML184:AML187 AWH184:AWH187 BGD184:BGD187 BPZ184:BPZ187 BZV184:BZV187 CJR184:CJR187 CTN184:CTN187 DDJ184:DDJ187 DNF184:DNF187 DXB184:DXB187 EGX184:EGX187 EQT184:EQT187 FAP184:FAP187 LCD184:LCD187 FKL184:FKL187 FUH184:FUH187 GED184:GED187 GNZ184:GNZ187 GXV184:GXV187 HHR184:HHR187 HRN184:HRN187 IBJ184:IBJ187 ILF184:ILF187 IVB184:IVB187 JEX184:JEX187 JOT184:JOT187 JYP184:JYP187 KIL184:KIL187 KSH184:KSH187 LLZ184:LLZ187 LVV184:LVV187 MZJ191:MZJ194 NJF191:NJF194 NTB191:NTB194 OCX191:OCX194 OMT191:OMT194 OWP191:OWP194 PGL191:PGL194 PQH191:PQH194 QAD191:QAD194 QJZ191:QJZ194 QTV191:QTV194 RDR191:RDR194 RNN191:RNN194 RXJ191:RXJ194 SHF191:SHF194 SRB191:SRB194 TAX191:TAX194 TKT191:TKT194 TUP191:TUP194 UEL191:UEL194 UOH191:UOH194 UYD191:UYD194 VHZ191:VHZ194 VRV191:VRV194 WBR191:WBR194 WLN191:WLN194 WVJ191:WVJ194 IX191:IX194 ST191:ST194 ACP191:ACP194 AML191:AML194 AWH191:AWH194 BGD191:BGD194 BPZ191:BPZ194 BZV191:BZV194 CJR191:CJR194 CTN191:CTN194 DDJ191:DDJ194 DNF191:DNF194 DXB191:DXB194 EGX191:EGX194 EQT191:EQT194 FAP191:FAP194 LCD191:LCD194 FKL191:FKL194 FUH191:FUH194 GED191:GED194 GNZ191:GNZ194 GXV191:GXV194 HHR191:HHR194 HRN191:HRN194 IBJ191:IBJ194 ILF191:ILF194 IVB191:IVB194 JEX191:JEX194 JOT191:JOT194 JYP191:JYP194 KIL191:KIL194 KSH191:KSH194 LLZ191:LLZ194 LVV191:LVV194 MFR191:MFR194 NTB202:NTB204">

--- a/DM/databank/banking/deal_management/DealManagement_Test_39945.xlsx
+++ b/DM/databank/banking/deal_management/DealManagement_Test_39945.xlsx
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="553">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -1725,6 +1725,54 @@
   </si>
   <si>
     <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"5200387726","modelId":"0995465226","entityId":"2380202516","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2380202516","entityType":"PERS","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3880014183","actionFlag":"OVRD","priceItemCode":"PI_022","priceItemDescription":"V2-Monthly Acct Serv Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-10-20","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"3888600268","priceCompDesc":"FLAT","valueAmt":"10","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2957478735","dealId":"9875063618","entityType":"PERS","entityId":"2380202516","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2380202516","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"13","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-09-25","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9875063618","modelId":"2957478735","entityId":"2380202516","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2380202516","entityType":"PERS","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"9500014447","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-09-25","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300004","priceCompDesc":"FLAT","valueAmt":"13","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2957478735","dealId":"9875063618","entityType":"PERS","entityId":"2380202516","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2380202516","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"9508600846","valueAmt":"12","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"N","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"9500014447","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-10-20","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9875063618","modelId":"2957478735","entityId":"2380202516","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2380202516","entityType":"PERS","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"9500014448","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-10-20","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"9508600846","priceCompDesc":"FLAT","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2957478735","dealId":"9875063618","entityType":"PERS","entityId":"2380202516","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2380202516","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300006","valueAmt":"11","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"Y","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"5410009203","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-09-25","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9875063618","modelId":"2957478735","entityId":"2380202516","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2380202516","entityType":"PERS","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"9500014449","actionFlag":"OVRD","priceItemCode":"PI_022","priceItemDescription":"V2-Monthly Acct Serv Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-09-25","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300006","priceCompDesc":"FLAT","valueAmt":"11","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2957478735","dealId":"9875063618","entityType":"PERS","entityId":"2380202516","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2380202516","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"9508600848","valueAmt":"10","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"N","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"9500014449","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-10-20","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9875063618","modelId":"2957478735","entityId":"2380202516","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2380202516","entityType":"PERS","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"9500014450","actionFlag":"OVRD","priceItemCode":"PI_022","priceItemDescription":"V2-Monthly Acct Serv Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-10-20","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"9508600848","priceCompDesc":"FLAT","valueAmt":"10","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7759461550","dealId":"1230204020","entityType":"PERS","entityId":"2380202516","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2380202516","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"13","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-09-26","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"1230204020","modelId":"7759461550","entityId":"2380202516","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2380202516","entityType":"PERS","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"6320014745","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-09-26","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300004","priceCompDesc":"FLAT","valueAmt":"13","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7759461550","dealId":"1230204020","entityType":"PERS","entityId":"2380202516","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2380202516","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"6328601387","valueAmt":"12","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"N","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"6320014745","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-10-21","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"1230204020","modelId":"7759461550","entityId":"2380202516","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2380202516","entityType":"PERS","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"6320014746","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-10-21","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"6328601387","priceCompDesc":"FLAT","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7759461550","dealId":"1230204020","entityType":"PERS","entityId":"2380202516","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2380202516","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300006","valueAmt":"11","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"Y","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"5410009203","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-09-26","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"1230204020","modelId":"7759461550","entityId":"2380202516","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2380202516","entityType":"PERS","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"6320014747","actionFlag":"OVRD","priceItemCode":"PI_022","priceItemDescription":"V2-Monthly Acct Serv Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-09-26","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300006","priceCompDesc":"FLAT","valueAmt":"11","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7759461550","dealId":"1230204020","entityType":"PERS","entityId":"2380202516","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2380202516","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"6328601389","valueAmt":"10","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"N","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"6320014747","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-10-21","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"1230204020","modelId":"7759461550","entityId":"2380202516","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2380202516","entityType":"PERS","entityIdentifierValue":"Reg_DEAL_PERSON_CH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"6320014748","actionFlag":"OVRD","priceItemCode":"PI_022","priceItemDescription":"V2-Monthly Acct Serv Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-10-21","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"6328601389","priceCompDesc":"FLAT","valueAmt":"10","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
   </si>
 </sst>
 </file>
@@ -9380,10 +9428,10 @@
       </c>
       <c r="Z151" s="79"/>
       <c r="AU151" t="s">
-        <v>533</v>
+        <v>549</v>
       </c>
       <c r="AV151" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
     </row>
     <row r="152" spans="1:47" x14ac:dyDescent="0.35">
@@ -9460,10 +9508,10 @@
       </c>
       <c r="Z152" s="84"/>
       <c r="AU152" t="s">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="AV152" t="s">
-        <v>536</v>
+        <v>552</v>
       </c>
     </row>
     <row r="154" spans="1:47" x14ac:dyDescent="0.35">
@@ -12178,10 +12226,10 @@
       </c>
       <c r="Z203" s="79"/>
       <c r="AU203" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="AV203" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
     </row>
     <row r="204" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -12243,10 +12291,10 @@
       </c>
       <c r="Z204" s="84"/>
       <c r="AU204" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="AV204" t="s">
-        <v>532</v>
+        <v>548</v>
       </c>
     </row>
     <row r="206" spans="1:47" x14ac:dyDescent="0.35">
